--- a/1조_문서자료/1조_기능정의서_남구통합도서관.xlsx
+++ b/1조_문서자료/1조_기능정의서_남구통합도서관.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\big303\Desktop\TeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject_Document\1조_문서자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="19485" windowHeight="10425" activeTab="1"/>
+    <x:workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="표지" sheetId="1" r:id="rId4"/>
@@ -43,6 +43,19 @@
   </x:si>
   <x:si>
     <x:t>위치 : Header 하단
+1. 베스트 셀러 도서 이미지 및 제목 출력
+2. 추천 도서 이미지 및 제목 출력
+3. 베스트셀러 및 추천도서 순위를 시각화하여 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Header 하단
+1. 검색 결과 출력
+ - 이미지 섬네일, 제목과 함께 간단한 설명 제공
+ - 소장도서관 별 자료건수 표시
+ - 소장도서의 반납상태, 대출가능 여부 확인 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Header 하단
 1. 로그인 5회 실패시 로그인 잠금 기능
 2. 일정 시간이 지난 후 자동 로그아웃 기능
 3. 휴면계정 해제 기능
@@ -50,21 +63,31 @@
   </x:si>
   <x:si>
     <x:t>위치 : Header 하단
-1. 베스트 셀러 도서 이미지 및 제목 출력
-2. 추천 도서 이미지 및 제목 출력
-3. 베스트셀러 및 추천도서 순위를 시각화하여 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
 1. 권한 부여
  - 관리자별 권한 부여 기능
 2. 관리자 권한 출력 기능</x:t>
   </x:si>
   <x:si>
-    <x:t>Library-board</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  통합도서관 홈페이지 개편</x:t>
+    <x:t>위치 : Header 하단
+1. 검색 버튼 출력
+ - 모든 게시판 내용 검색 기능
+2. 상세검색 버튼 출력
+ - 작가, 출판사, 카테고리 등 조건을 등록할 수 있는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : DB(어떤방식으로 보여줄지 안정함)
+1. 사용자 접속기록
+ - ID, 날짜, 시간, 접속IP
+2. 사용자 중요 작업 내용 기록
+ - 비밀번호 변경
+ - 개인정보수정
+ - 게시글 작성,수정,삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : DB(어떤방식으로 보여줄지 안정함)
+1. 각 관리자별 사용이력 기록
+ - 로그인 기록
+ - 게시글 작성,수정,삭제</x:t>
   </x:si>
   <x:si>
     <x:t>위치 : Header 하단
@@ -78,150 +101,9 @@
  - 파일 업로드 및 용량 제한 기능</x:t>
   </x:si>
   <x:si>
-    <x:t>위치 : Header 하단
-1. 검색 결과 출력
- - 이미지 섬네일, 제목과 함께 간단한 설명 제공
- - 소장도서관 별 자료건수 표시
- - 소장도서의 반납상태, 대출가능 여부 확인 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : DB(어떤방식으로 보여줄지 안정함)
-1. 각 관리자별 사용이력 기록
- - 로그인 기록
- - 게시글 작성,수정,삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  603호실 1조</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  Front-end</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PopUp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초안작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로제트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depath1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depath3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의 영역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depath2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>히스토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자
-연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UserLog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통합도서관 홈페이지 개편 기능 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  PM : 박철순 / PL : 최재성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
-1. 검색 버튼 출력
- - 모든 게시판 내용 검색 기능
-2. 상세검색 버튼 출력
- - 작가, 출판사, 카테고리 등 조건을 등록할 수 있는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박철순</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : DB(어떤방식으로 보여줄지 안정함)
-1. 사용자 접속기록
- - ID, 날짜, 시간, 접속IP
-2. 사용자 중요 작업 내용 기록
- - 비밀번호 변경
- - 개인정보수정
- - 게시글 작성,수정,삭제</x:t>
-  </x:si>
-  <x:si>
     <x:t>위치 : Modal
 1. 이미지 팝업 등록 기능
  - 게시기간 설정 기능 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-login-Mypage</x:t>
   </x:si>
   <x:si>
     <x:t>위치 : 페이지 상단
@@ -245,31 +127,149 @@
  - 작은도서관</x:t>
   </x:si>
   <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depath1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의 영역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserLog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depath2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로제트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자
+연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PopUp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초안작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히스토리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depath3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박철순</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  603호실 1조</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Front-end</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdminLog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-main-search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-log-userlog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-board</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  통합도서관 홈페이지 개편</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-popup</x:t>
+  </x:si>
+  <x:si>
     <x:t>Library-admin</x:t>
   </x:si>
   <x:si>
-    <x:t>Library-popup</x:t>
+    <x:t>Library-login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-main</x:t>
   </x:si>
   <x:si>
     <x:t>Library-signup</x:t>
   </x:si>
   <x:si>
-    <x:t>Library-main</x:t>
-  </x:si>
-  <x:si>
     <x:t>Library-Header</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">  PM : 박철순 / PL : 최재성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통합도서관 홈페이지 개편 기능 정의서</x:t>
+  </x:si>
+  <x:si>
     <x:t>Library-board-search</x:t>
   </x:si>
   <x:si>
+    <x:t>Library-login-Mypage</x:t>
+  </x:si>
+  <x:si>
     <x:t>Library-log-adminlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-log-userlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-main-search</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -323,11 +323,17 @@
       <x:sz val="9"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
+          <x:sz val="14"/>
           <x:color rgb="ff000000"/>
           <x:b val="1"/>
           <hs:size val="100"/>
@@ -339,18 +345,12 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
+          <x:sz val="14"/>
           <x:color rgb="ff000000"/>
           <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="14"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
   </x:fonts>
   <x:fills count="4">
     <x:fill>
@@ -617,7 +617,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="56">
+  <x:cellXfs count="52">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -633,19 +633,6 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -675,19 +662,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -814,19 +788,6 @@
     <x:xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -839,19 +800,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1431,6 +1379,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1790,307 +1739,307 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.199999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="3" style="10" customWidth="1"/>
-    <x:col min="2" max="2" width="3.375" style="10" customWidth="1"/>
-    <x:col min="3" max="3" width="9.5" style="10" customWidth="1"/>
-    <x:col min="4" max="4" width="10.875" style="10" customWidth="1"/>
-    <x:col min="5" max="5" width="72.875" style="10" customWidth="1"/>
-    <x:col min="6" max="6" width="9" style="10" customWidth="1"/>
-    <x:col min="7" max="7" width="3.625" style="10" customWidth="1"/>
-    <x:col min="8" max="16384" width="9" style="10"/>
+    <x:col min="1" max="1" width="3" style="8" customWidth="1"/>
+    <x:col min="2" max="2" width="3.375" style="8" customWidth="1"/>
+    <x:col min="3" max="3" width="9.5" style="8" customWidth="1"/>
+    <x:col min="4" max="4" width="10.875" style="8" customWidth="1"/>
+    <x:col min="5" max="5" width="72.875" style="8" customWidth="1"/>
+    <x:col min="6" max="6" width="9" style="8" customWidth="1"/>
+    <x:col min="7" max="7" width="3.625" style="8" customWidth="1"/>
+    <x:col min="8" max="16384" width="9" style="8"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:7" ht="13.550000000000001">
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="16"/>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="16"/>
-      <x:c r="G2" s="17"/>
+      <x:c r="B2" s="13"/>
+      <x:c r="C2" s="14"/>
+      <x:c r="D2" s="14"/>
+      <x:c r="E2" s="14"/>
+      <x:c r="F2" s="14"/>
+      <x:c r="G2" s="15"/>
     </x:row>
     <x:row r="3" spans="2:7" ht="26.25" customHeight="1">
-      <x:c r="B3" s="18"/>
-      <x:c r="C3" s="53" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D3" s="53"/>
-      <x:c r="E3" s="53"/>
-      <x:c r="F3" s="53"/>
-      <x:c r="G3" s="19"/>
+      <x:c r="B3" s="16"/>
+      <x:c r="C3" s="49" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D3" s="49"/>
+      <x:c r="E3" s="49"/>
+      <x:c r="F3" s="49"/>
+      <x:c r="G3" s="17"/>
     </x:row>
     <x:row r="4" spans="2:7">
-      <x:c r="B4" s="18"/>
-      <x:c r="C4" s="54"/>
-      <x:c r="D4" s="54"/>
-      <x:c r="E4" s="54"/>
-      <x:c r="F4" s="54"/>
-      <x:c r="G4" s="19"/>
+      <x:c r="B4" s="16"/>
+      <x:c r="C4" s="50"/>
+      <x:c r="D4" s="50"/>
+      <x:c r="E4" s="50"/>
+      <x:c r="F4" s="50"/>
+      <x:c r="G4" s="17"/>
     </x:row>
     <x:row r="5" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B5" s="18"/>
-      <x:c r="C5" s="27" t="s">
+      <x:c r="B5" s="16"/>
+      <x:c r="C5" s="25" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D5" s="51" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E5" s="51"/>
+      <x:c r="F5" s="51"/>
+      <x:c r="G5" s="17"/>
+    </x:row>
+    <x:row r="6" spans="2:7" ht="16.5" customHeight="1">
+      <x:c r="B6" s="16"/>
+      <x:c r="C6" s="25" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D6" s="22" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E6" s="22"/>
+      <x:c r="F6" s="22"/>
+      <x:c r="G6" s="17"/>
+    </x:row>
+    <x:row r="7" spans="2:7" ht="16.5" customHeight="1">
+      <x:c r="B7" s="16"/>
+      <x:c r="C7" s="25" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D7" s="22" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E7" s="22"/>
+      <x:c r="F7" s="22"/>
+      <x:c r="G7" s="17"/>
+    </x:row>
+    <x:row r="8" spans="2:7" ht="16.5" customHeight="1">
+      <x:c r="B8" s="16"/>
+      <x:c r="C8" s="25" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D8" s="29" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E8" s="22"/>
+      <x:c r="F8" s="22"/>
+      <x:c r="G8" s="17"/>
+    </x:row>
+    <x:row r="9" spans="2:7" ht="8.25" customHeight="1">
+      <x:c r="B9" s="16"/>
+      <x:c r="C9" s="23"/>
+      <x:c r="D9" s="24"/>
+      <x:c r="E9" s="24"/>
+      <x:c r="F9" s="24"/>
+      <x:c r="G9" s="17"/>
+    </x:row>
+    <x:row r="10" spans="2:7" ht="16.5" customHeight="1">
+      <x:c r="B10" s="16"/>
+      <x:c r="C10" s="18"/>
+      <x:c r="D10" s="22"/>
+      <x:c r="E10" s="22"/>
+      <x:c r="F10" s="22"/>
+      <x:c r="G10" s="17"/>
+    </x:row>
+    <x:row r="11" spans="2:7" ht="21.75" customHeight="1">
+      <x:c r="B11" s="16"/>
+      <x:c r="C11" s="18" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D11" s="18"/>
+      <x:c r="E11" s="5"/>
+      <x:c r="F11" s="5"/>
+      <x:c r="G11" s="17"/>
+    </x:row>
+    <x:row r="12" spans="2:7">
+      <x:c r="B12" s="16"/>
+      <x:c r="C12" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D12" s="9" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E12" s="9" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D5" s="55" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E5" s="55"/>
-      <x:c r="F5" s="55"/>
-      <x:c r="G5" s="19"/>
-    </x:row>
-    <x:row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B6" s="18"/>
-      <x:c r="C6" s="27" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D6" s="24" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E6" s="24"/>
-      <x:c r="F6" s="24"/>
-      <x:c r="G6" s="19"/>
-    </x:row>
-    <x:row r="7" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B7" s="18"/>
-      <x:c r="C7" s="27" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D7" s="24" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E7" s="24"/>
-      <x:c r="F7" s="24"/>
-      <x:c r="G7" s="19"/>
-    </x:row>
-    <x:row r="8" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B8" s="18"/>
-      <x:c r="C8" s="27" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D8" s="31" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E8" s="24"/>
-      <x:c r="F8" s="24"/>
-      <x:c r="G8" s="19"/>
-    </x:row>
-    <x:row r="9" spans="2:7" ht="8.25" customHeight="1">
-      <x:c r="B9" s="18"/>
-      <x:c r="C9" s="25"/>
-      <x:c r="D9" s="26"/>
-      <x:c r="E9" s="26"/>
-      <x:c r="F9" s="26"/>
-      <x:c r="G9" s="19"/>
-    </x:row>
-    <x:row r="10" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B10" s="18"/>
-      <x:c r="C10" s="20"/>
-      <x:c r="D10" s="24"/>
-      <x:c r="E10" s="24"/>
-      <x:c r="F10" s="24"/>
-      <x:c r="G10" s="19"/>
-    </x:row>
-    <x:row r="11" spans="2:7" ht="21.75" customHeight="1">
-      <x:c r="B11" s="18"/>
-      <x:c r="C11" s="20" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D11" s="20"/>
-      <x:c r="E11" s="6"/>
-      <x:c r="F11" s="6"/>
-      <x:c r="G11" s="19"/>
-    </x:row>
-    <x:row r="12" spans="2:7">
-      <x:c r="B12" s="18"/>
-      <x:c r="C12" s="11" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D12" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E12" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F12" s="11" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G12" s="19"/>
+      <x:c r="F12" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G12" s="17"/>
     </x:row>
     <x:row r="13" spans="2:7">
-      <x:c r="B13" s="18"/>
-      <x:c r="C13" s="13">
+      <x:c r="B13" s="16"/>
+      <x:c r="C13" s="11">
         <x:v>0.10000000000000001</x:v>
       </x:c>
-      <x:c r="D13" s="14">
+      <x:c r="D13" s="12">
         <x:v>44867</x:v>
       </x:c>
-      <x:c r="E13" s="12" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F13" s="13" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G13" s="19"/>
+      <x:c r="E13" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F13" s="11" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G13" s="17"/>
     </x:row>
     <x:row r="14" spans="2:7">
-      <x:c r="B14" s="18"/>
-      <x:c r="C14" s="12"/>
-      <x:c r="D14" s="12"/>
-      <x:c r="E14" s="12"/>
-      <x:c r="F14" s="12"/>
-      <x:c r="G14" s="19"/>
+      <x:c r="B14" s="16"/>
+      <x:c r="C14" s="10"/>
+      <x:c r="D14" s="10"/>
+      <x:c r="E14" s="10"/>
+      <x:c r="F14" s="10"/>
+      <x:c r="G14" s="17"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="18"/>
-      <x:c r="C15" s="12"/>
-      <x:c r="D15" s="12"/>
-      <x:c r="E15" s="12"/>
-      <x:c r="F15" s="12"/>
-      <x:c r="G15" s="19"/>
+      <x:c r="B15" s="16"/>
+      <x:c r="C15" s="10"/>
+      <x:c r="D15" s="10"/>
+      <x:c r="E15" s="10"/>
+      <x:c r="F15" s="10"/>
+      <x:c r="G15" s="17"/>
     </x:row>
     <x:row r="16" spans="2:7">
-      <x:c r="B16" s="18"/>
-      <x:c r="C16" s="12"/>
-      <x:c r="D16" s="12"/>
-      <x:c r="E16" s="12"/>
-      <x:c r="F16" s="12"/>
-      <x:c r="G16" s="19"/>
+      <x:c r="B16" s="16"/>
+      <x:c r="C16" s="10"/>
+      <x:c r="D16" s="10"/>
+      <x:c r="E16" s="10"/>
+      <x:c r="F16" s="10"/>
+      <x:c r="G16" s="17"/>
     </x:row>
     <x:row r="17" spans="2:7">
-      <x:c r="B17" s="18"/>
-      <x:c r="C17" s="12"/>
-      <x:c r="D17" s="12"/>
-      <x:c r="E17" s="12"/>
-      <x:c r="F17" s="12"/>
-      <x:c r="G17" s="19"/>
+      <x:c r="B17" s="16"/>
+      <x:c r="C17" s="10"/>
+      <x:c r="D17" s="10"/>
+      <x:c r="E17" s="10"/>
+      <x:c r="F17" s="10"/>
+      <x:c r="G17" s="17"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="18"/>
-      <x:c r="C18" s="12"/>
-      <x:c r="D18" s="12"/>
-      <x:c r="E18" s="12"/>
-      <x:c r="F18" s="12"/>
-      <x:c r="G18" s="19"/>
+      <x:c r="B18" s="16"/>
+      <x:c r="C18" s="10"/>
+      <x:c r="D18" s="10"/>
+      <x:c r="E18" s="10"/>
+      <x:c r="F18" s="10"/>
+      <x:c r="G18" s="17"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="18"/>
-      <x:c r="C19" s="12"/>
-      <x:c r="D19" s="12"/>
-      <x:c r="E19" s="12"/>
-      <x:c r="F19" s="12"/>
-      <x:c r="G19" s="19"/>
+      <x:c r="B19" s="16"/>
+      <x:c r="C19" s="10"/>
+      <x:c r="D19" s="10"/>
+      <x:c r="E19" s="10"/>
+      <x:c r="F19" s="10"/>
+      <x:c r="G19" s="17"/>
     </x:row>
     <x:row r="20" spans="2:7">
-      <x:c r="B20" s="18"/>
-      <x:c r="C20" s="12"/>
-      <x:c r="D20" s="12"/>
-      <x:c r="E20" s="12"/>
-      <x:c r="F20" s="12"/>
-      <x:c r="G20" s="19"/>
+      <x:c r="B20" s="16"/>
+      <x:c r="C20" s="10"/>
+      <x:c r="D20" s="10"/>
+      <x:c r="E20" s="10"/>
+      <x:c r="F20" s="10"/>
+      <x:c r="G20" s="17"/>
     </x:row>
     <x:row r="21" spans="2:7">
-      <x:c r="B21" s="18"/>
-      <x:c r="C21" s="12"/>
-      <x:c r="D21" s="12"/>
-      <x:c r="E21" s="12"/>
-      <x:c r="F21" s="12"/>
-      <x:c r="G21" s="19"/>
+      <x:c r="B21" s="16"/>
+      <x:c r="C21" s="10"/>
+      <x:c r="D21" s="10"/>
+      <x:c r="E21" s="10"/>
+      <x:c r="F21" s="10"/>
+      <x:c r="G21" s="17"/>
     </x:row>
     <x:row r="22" spans="2:7">
-      <x:c r="B22" s="18"/>
-      <x:c r="C22" s="12"/>
-      <x:c r="D22" s="12"/>
-      <x:c r="E22" s="12"/>
-      <x:c r="F22" s="12"/>
-      <x:c r="G22" s="19"/>
+      <x:c r="B22" s="16"/>
+      <x:c r="C22" s="10"/>
+      <x:c r="D22" s="10"/>
+      <x:c r="E22" s="10"/>
+      <x:c r="F22" s="10"/>
+      <x:c r="G22" s="17"/>
     </x:row>
     <x:row r="23" spans="2:7">
-      <x:c r="B23" s="18"/>
-      <x:c r="C23" s="12"/>
-      <x:c r="D23" s="12"/>
-      <x:c r="E23" s="12"/>
-      <x:c r="F23" s="12"/>
-      <x:c r="G23" s="19"/>
+      <x:c r="B23" s="16"/>
+      <x:c r="C23" s="10"/>
+      <x:c r="D23" s="10"/>
+      <x:c r="E23" s="10"/>
+      <x:c r="F23" s="10"/>
+      <x:c r="G23" s="17"/>
     </x:row>
     <x:row r="24" spans="2:7">
-      <x:c r="B24" s="18"/>
-      <x:c r="C24" s="12"/>
-      <x:c r="D24" s="12"/>
-      <x:c r="E24" s="12"/>
-      <x:c r="F24" s="12"/>
-      <x:c r="G24" s="19"/>
+      <x:c r="B24" s="16"/>
+      <x:c r="C24" s="10"/>
+      <x:c r="D24" s="10"/>
+      <x:c r="E24" s="10"/>
+      <x:c r="F24" s="10"/>
+      <x:c r="G24" s="17"/>
     </x:row>
     <x:row r="25" spans="2:7">
-      <x:c r="B25" s="18"/>
-      <x:c r="C25" s="12"/>
-      <x:c r="D25" s="12"/>
-      <x:c r="E25" s="12"/>
-      <x:c r="F25" s="12"/>
-      <x:c r="G25" s="19"/>
+      <x:c r="B25" s="16"/>
+      <x:c r="C25" s="10"/>
+      <x:c r="D25" s="10"/>
+      <x:c r="E25" s="10"/>
+      <x:c r="F25" s="10"/>
+      <x:c r="G25" s="17"/>
     </x:row>
     <x:row r="26" spans="2:7">
-      <x:c r="B26" s="18"/>
-      <x:c r="C26" s="12"/>
-      <x:c r="D26" s="12"/>
-      <x:c r="E26" s="12"/>
-      <x:c r="F26" s="12"/>
-      <x:c r="G26" s="19"/>
+      <x:c r="B26" s="16"/>
+      <x:c r="C26" s="10"/>
+      <x:c r="D26" s="10"/>
+      <x:c r="E26" s="10"/>
+      <x:c r="F26" s="10"/>
+      <x:c r="G26" s="17"/>
     </x:row>
     <x:row r="27" spans="2:7">
-      <x:c r="B27" s="18"/>
-      <x:c r="C27" s="12"/>
-      <x:c r="D27" s="12"/>
-      <x:c r="E27" s="12"/>
-      <x:c r="F27" s="12"/>
-      <x:c r="G27" s="19"/>
+      <x:c r="B27" s="16"/>
+      <x:c r="C27" s="10"/>
+      <x:c r="D27" s="10"/>
+      <x:c r="E27" s="10"/>
+      <x:c r="F27" s="10"/>
+      <x:c r="G27" s="17"/>
     </x:row>
     <x:row r="28" spans="2:7">
-      <x:c r="B28" s="18"/>
-      <x:c r="C28" s="12"/>
-      <x:c r="D28" s="12"/>
-      <x:c r="E28" s="12"/>
-      <x:c r="F28" s="12"/>
-      <x:c r="G28" s="19"/>
+      <x:c r="B28" s="16"/>
+      <x:c r="C28" s="10"/>
+      <x:c r="D28" s="10"/>
+      <x:c r="E28" s="10"/>
+      <x:c r="F28" s="10"/>
+      <x:c r="G28" s="17"/>
     </x:row>
     <x:row r="29" spans="2:7">
-      <x:c r="B29" s="18"/>
-      <x:c r="C29" s="12"/>
-      <x:c r="D29" s="12"/>
-      <x:c r="E29" s="12"/>
-      <x:c r="F29" s="12"/>
-      <x:c r="G29" s="19"/>
+      <x:c r="B29" s="16"/>
+      <x:c r="C29" s="10"/>
+      <x:c r="D29" s="10"/>
+      <x:c r="E29" s="10"/>
+      <x:c r="F29" s="10"/>
+      <x:c r="G29" s="17"/>
     </x:row>
     <x:row r="30" spans="2:7">
-      <x:c r="B30" s="18"/>
-      <x:c r="C30" s="12"/>
-      <x:c r="D30" s="12"/>
-      <x:c r="E30" s="12"/>
-      <x:c r="F30" s="12"/>
-      <x:c r="G30" s="19"/>
+      <x:c r="B30" s="16"/>
+      <x:c r="C30" s="10"/>
+      <x:c r="D30" s="10"/>
+      <x:c r="E30" s="10"/>
+      <x:c r="F30" s="10"/>
+      <x:c r="G30" s="17"/>
     </x:row>
     <x:row r="31" spans="2:7">
-      <x:c r="B31" s="18"/>
-      <x:c r="C31" s="12"/>
-      <x:c r="D31" s="12"/>
-      <x:c r="E31" s="12"/>
-      <x:c r="F31" s="12"/>
-      <x:c r="G31" s="19"/>
+      <x:c r="B31" s="16"/>
+      <x:c r="C31" s="10"/>
+      <x:c r="D31" s="10"/>
+      <x:c r="E31" s="10"/>
+      <x:c r="F31" s="10"/>
+      <x:c r="G31" s="17"/>
     </x:row>
     <x:row r="32" spans="2:7">
-      <x:c r="B32" s="18"/>
-      <x:c r="C32" s="12"/>
-      <x:c r="D32" s="12"/>
-      <x:c r="E32" s="12"/>
-      <x:c r="F32" s="12"/>
-      <x:c r="G32" s="19"/>
+      <x:c r="B32" s="16"/>
+      <x:c r="C32" s="10"/>
+      <x:c r="D32" s="10"/>
+      <x:c r="E32" s="10"/>
+      <x:c r="F32" s="10"/>
+      <x:c r="G32" s="17"/>
     </x:row>
     <x:row r="33" spans="2:7" ht="13.550000000000001">
-      <x:c r="B33" s="21"/>
-      <x:c r="C33" s="22"/>
-      <x:c r="D33" s="22"/>
-      <x:c r="E33" s="22"/>
-      <x:c r="F33" s="22"/>
-      <x:c r="G33" s="23"/>
+      <x:c r="B33" s="19"/>
+      <x:c r="C33" s="20"/>
+      <x:c r="D33" s="20"/>
+      <x:c r="E33" s="20"/>
+      <x:c r="F33" s="20"/>
+      <x:c r="G33" s="21"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -2108,16 +2057,16 @@
   <x:sheetPr codeName="Sheet2">
     <x:pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J59"/>
+  <x:dimension ref="A1:J28"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H3" activeCellId="0" sqref="H3:H3"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K4" activeCellId="0" sqref="K4:K4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="8.875" style="33" customWidth="1"/>
+    <x:col min="2" max="2" width="8.875" style="30" customWidth="1"/>
     <x:col min="3" max="3" width="21.625" style="3" customWidth="1"/>
     <x:col min="4" max="5" width="15.875" style="1" customWidth="1"/>
     <x:col min="6" max="6" width="13.125" style="3" customWidth="1"/>
@@ -2127,851 +2076,476 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="46" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B1" s="46" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C1" s="43" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="51" t="s">
+      <x:c r="A1" s="42" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="42" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C1" s="39" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="47" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E1" s="39" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F1" s="39" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G1" s="41" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="39" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="43"/>
+      <x:c r="B2" s="43"/>
+      <x:c r="C2" s="40"/>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="40"/>
+      <x:c r="G2" s="40"/>
+      <x:c r="H2" s="40"/>
+    </x:row>
+    <x:row r="3" spans="1:8" ht="262.5" customHeight="1">
+      <x:c r="A3" s="26">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="31">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="27" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D3" s="27" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="27"/>
+      <x:c r="F3" s="26"/>
+      <x:c r="G3" s="26"/>
+      <x:c r="H3" s="28" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" ht="78" customHeight="1">
+      <x:c r="A4" s="7">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B4" s="31">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D4" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E1" s="43" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F1" s="43" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G1" s="45" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H1" s="43" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="47"/>
-      <x:c r="B2" s="47"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="52"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-    </x:row>
-    <x:row r="3" spans="1:8" ht="262.5" customHeight="1">
-      <x:c r="A3" s="28">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="34">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="29" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D3" s="29" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E3" s="29"/>
-      <x:c r="F3" s="28"/>
-      <x:c r="G3" s="28"/>
-      <x:c r="H3" s="30" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9" ht="78" customHeight="1">
-      <x:c r="A4" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="34">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C4" s="7" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D4" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" s="7"/>
-      <x:c r="F4" s="8"/>
-      <x:c r="G4" s="28"/>
+      <x:c r="E4" s="6"/>
+      <x:c r="F4" s="7"/>
+      <x:c r="G4" s="26"/>
       <x:c r="H4" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="138" customHeight="1">
-      <x:c r="A5" s="28">
+      <x:c r="A5" s="26">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B5" s="34">
+      <x:c r="B5" s="31">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C5" s="7" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D5" s="7" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E5" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F5" s="8"/>
-      <x:c r="G5" s="28"/>
+      <x:c r="C5" s="6" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D5" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E5" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F5" s="7"/>
+      <x:c r="G5" s="26"/>
       <x:c r="H5" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I5" s="41"/>
-      <x:c r="J5" s="42"/>
+      <x:c r="I5" s="37"/>
+      <x:c r="J5" s="38"/>
     </x:row>
     <x:row r="6" spans="1:9" ht="102" customHeight="1">
-      <x:c r="A6" s="28">
+      <x:c r="A6" s="26">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="34">
+      <x:c r="B6" s="31">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C6" s="7" t="s">
+      <x:c r="C6" s="6" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D6" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E6" s="7"/>
-      <x:c r="F6" s="8"/>
-      <x:c r="G6" s="28"/>
+      <x:c r="D6" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E6" s="6"/>
+      <x:c r="F6" s="7"/>
+      <x:c r="G6" s="26"/>
       <x:c r="H6" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="2"/>
     </x:row>
     <x:row r="7" spans="1:8" ht="64.5" customHeight="1">
-      <x:c r="A7" s="8">
+      <x:c r="A7" s="7">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B7" s="34">
+      <x:c r="B7" s="31">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C7" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D7" s="7" t="s">
+      <x:c r="C7" s="6" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E7" s="7"/>
-      <x:c r="F7" s="8"/>
-      <x:c r="G7" s="28"/>
+      <x:c r="E7" s="6"/>
+      <x:c r="F7" s="7"/>
+      <x:c r="G7" s="26"/>
       <x:c r="H7" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" ht="75.75" customHeight="1">
+      <x:c r="A8" s="26">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B8" s="31">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C8" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F8" s="7"/>
+      <x:c r="G8" s="26"/>
+      <x:c r="H8" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" ht="88.5" customHeight="1">
+      <x:c r="A9" s="26">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="31">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D9" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F9" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G9" s="26"/>
+      <x:c r="H9" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:8" ht="75.75" customHeight="1">
-      <x:c r="A8" s="28">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="34">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
+    <x:row r="10" spans="1:8" ht="131.25" customHeight="1">
+      <x:c r="A10" s="26">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="31">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D10" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E10" s="6"/>
+      <x:c r="F10" s="7"/>
+      <x:c r="G10" s="26"/>
+      <x:c r="H10" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" ht="106.5" customHeight="1">
+      <x:c r="A11" s="7">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B11" s="31">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D11" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E11" s="6"/>
+      <x:c r="F11" s="7"/>
+      <x:c r="G11" s="26" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H11" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" ht="70.5" customHeight="1">
+      <x:c r="A12" s="26">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="31">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D12" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E12" s="6"/>
+      <x:c r="F12" s="7"/>
+      <x:c r="G12" s="26" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H12" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8" ht="63" customHeight="1">
+      <x:c r="A13" s="26"/>
+      <x:c r="B13" s="31">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="6" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D8" s="7" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F8" s="8"/>
-      <x:c r="G8" s="28"/>
-      <x:c r="H8" s="4" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8" ht="88.5" customHeight="1">
-      <x:c r="A9" s="28">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="34">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D9" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E9" s="7" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F9" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G9" s="28"/>
-      <x:c r="H9" s="4" t="s">
+      <x:c r="D13" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E13" s="6"/>
+      <x:c r="F13" s="7"/>
+      <x:c r="G13" s="26" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H13" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:8" ht="131.25" customHeight="1">
-      <x:c r="A10" s="28">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B10" s="34">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C10" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D10" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E10" s="7"/>
-      <x:c r="F10" s="8"/>
-      <x:c r="G10" s="28"/>
-      <x:c r="H10" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8" ht="106.5" customHeight="1">
-      <x:c r="A11" s="8">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="34">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C11" s="7" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D11" s="7" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E11" s="7"/>
-      <x:c r="F11" s="8"/>
-      <x:c r="G11" s="28" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H11" s="4" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8" ht="70.5" customHeight="1">
-      <x:c r="A12" s="28">
+    <x:row r="14" spans="1:8" ht="54" customHeight="1">
+      <x:c r="A14" s="26"/>
+      <x:c r="B14" s="31">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C14" s="6" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D14" s="6" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E14" s="6"/>
+      <x:c r="F14" s="7"/>
+      <x:c r="G14" s="26" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H14" s="4" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B12" s="34">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C12" s="7" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D12" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E12" s="7"/>
-      <x:c r="F12" s="8"/>
-      <x:c r="G12" s="28" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H12" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8" ht="63" customHeight="1">
-      <x:c r="A13" s="28"/>
-      <x:c r="B13" s="34">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C13" s="7" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D13" s="7" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E13" s="7"/>
-      <x:c r="F13" s="8"/>
-      <x:c r="G13" s="28" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H13" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8" ht="54" customHeight="1">
-      <x:c r="A14" s="28"/>
-      <x:c r="B14" s="34">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C14" s="7" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D14" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E14" s="7"/>
-      <x:c r="F14" s="8"/>
-      <x:c r="G14" s="28" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H14" s="4" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="A15" s="28"/>
-      <x:c r="B15" s="34"/>
-      <x:c r="C15" s="7"/>
-      <x:c r="D15" s="7"/>
-      <x:c r="E15" s="7"/>
-      <x:c r="F15" s="8"/>
-      <x:c r="G15" s="28"/>
-      <x:c r="H15" s="4"/>
-    </x:row>
-    <x:row r="16" spans="1:8">
-      <x:c r="A16" s="28">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B16" s="35"/>
-      <x:c r="C16" s="7"/>
-      <x:c r="D16" s="7"/>
-      <x:c r="E16" s="7"/>
-      <x:c r="F16" s="8"/>
-      <x:c r="G16" s="28"/>
-      <x:c r="H16" s="4"/>
-    </x:row>
-    <x:row r="17" spans="1:8">
-      <x:c r="A17" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B17" s="35"/>
-      <x:c r="C17" s="7"/>
-      <x:c r="D17" s="7"/>
-      <x:c r="E17" s="7"/>
-      <x:c r="F17" s="8"/>
-      <x:c r="G17" s="28"/>
-      <x:c r="H17" s="4"/>
-    </x:row>
-    <x:row r="18" spans="1:8">
-      <x:c r="A18" s="28">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B18" s="35"/>
-      <x:c r="C18" s="7"/>
-      <x:c r="D18" s="7"/>
-      <x:c r="E18" s="7"/>
-      <x:c r="F18" s="8"/>
-      <x:c r="G18" s="28"/>
-      <x:c r="H18" s="4"/>
-    </x:row>
-    <x:row r="19" spans="1:8">
-      <x:c r="A19" s="28">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B19" s="35"/>
-      <x:c r="C19" s="7"/>
-      <x:c r="D19" s="7"/>
-      <x:c r="E19" s="7"/>
-      <x:c r="F19" s="8"/>
-      <x:c r="G19" s="28"/>
-      <x:c r="H19" s="4"/>
-    </x:row>
-    <x:row r="20" spans="1:8">
-      <x:c r="A20" s="28">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B20" s="35"/>
-      <x:c r="C20" s="7"/>
-      <x:c r="D20" s="7"/>
-      <x:c r="E20" s="7"/>
-      <x:c r="F20" s="8"/>
-      <x:c r="G20" s="28"/>
-      <x:c r="H20" s="4"/>
-    </x:row>
-    <x:row r="21" spans="1:8">
-      <x:c r="A21" s="8">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B21" s="35"/>
-      <x:c r="C21" s="7"/>
-      <x:c r="D21" s="7"/>
-      <x:c r="E21" s="7"/>
-      <x:c r="F21" s="8"/>
-      <x:c r="G21" s="28"/>
-      <x:c r="H21" s="4"/>
-    </x:row>
-    <x:row r="22" spans="1:8">
-      <x:c r="A22" s="28">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B22" s="35"/>
-      <x:c r="C22" s="7"/>
-      <x:c r="D22" s="7"/>
-      <x:c r="E22" s="7"/>
-      <x:c r="F22" s="8"/>
-      <x:c r="G22" s="28"/>
-      <x:c r="H22" s="4"/>
-    </x:row>
-    <x:row r="23" spans="1:8">
-      <x:c r="A23" s="28">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B23" s="35"/>
-      <x:c r="C23" s="7"/>
-      <x:c r="D23" s="7"/>
-      <x:c r="E23" s="7"/>
-      <x:c r="F23" s="8"/>
-      <x:c r="G23" s="28"/>
-      <x:c r="H23" s="4"/>
-    </x:row>
-    <x:row r="24" spans="1:8">
-      <x:c r="A24" s="8">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B24" s="35"/>
-      <x:c r="C24" s="9"/>
-      <x:c r="D24" s="9"/>
-      <x:c r="E24" s="9"/>
-      <x:c r="F24" s="8"/>
-      <x:c r="G24" s="28"/>
-      <x:c r="H24" s="4"/>
-    </x:row>
-    <x:row r="25" spans="1:8">
-      <x:c r="A25" s="28">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B25" s="35"/>
-      <x:c r="C25" s="9"/>
-      <x:c r="D25" s="9"/>
-      <x:c r="E25" s="9"/>
-      <x:c r="F25" s="5"/>
-      <x:c r="G25" s="28"/>
-      <x:c r="H25" s="4"/>
-    </x:row>
-    <x:row r="26" spans="1:8">
-      <x:c r="A26" s="28">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B26" s="35"/>
-      <x:c r="C26" s="9"/>
-      <x:c r="D26" s="9"/>
-      <x:c r="E26" s="9"/>
-      <x:c r="F26" s="5"/>
-      <x:c r="G26" s="28"/>
-      <x:c r="H26" s="4"/>
-    </x:row>
-    <x:row r="27" spans="1:8">
-      <x:c r="A27" s="28">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B27" s="35"/>
-      <x:c r="C27" s="9"/>
-      <x:c r="D27" s="9"/>
-      <x:c r="E27" s="9"/>
-      <x:c r="F27" s="9"/>
-      <x:c r="G27" s="28"/>
-      <x:c r="H27" s="4"/>
-    </x:row>
-    <x:row r="28" spans="1:8">
-      <x:c r="A28" s="8">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B28" s="35"/>
-      <x:c r="C28" s="7"/>
-      <x:c r="D28" s="7"/>
-      <x:c r="E28" s="7"/>
-      <x:c r="F28" s="8"/>
-      <x:c r="G28" s="28"/>
-      <x:c r="H28" s="4"/>
-    </x:row>
-    <x:row r="29" spans="1:8">
-      <x:c r="A29" s="28">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B29" s="35"/>
-      <x:c r="C29" s="7"/>
-      <x:c r="D29" s="7"/>
-      <x:c r="E29" s="7"/>
-      <x:c r="F29" s="8"/>
-      <x:c r="G29" s="28"/>
-      <x:c r="H29" s="4"/>
-    </x:row>
-    <x:row r="30" spans="1:8">
-      <x:c r="A30" s="28">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B30" s="35"/>
-      <x:c r="C30" s="7"/>
-      <x:c r="D30" s="7"/>
-      <x:c r="E30" s="7"/>
-      <x:c r="F30" s="8"/>
-      <x:c r="G30" s="28"/>
-      <x:c r="H30" s="4"/>
-    </x:row>
-    <x:row r="31" spans="1:8">
-      <x:c r="A31" s="8">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B31" s="35"/>
-      <x:c r="C31" s="7"/>
-      <x:c r="D31" s="7"/>
-      <x:c r="E31" s="7"/>
-      <x:c r="F31" s="8"/>
-      <x:c r="G31" s="28"/>
-      <x:c r="H31" s="4"/>
-    </x:row>
-    <x:row r="32" spans="1:8">
-      <x:c r="A32" s="28">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B32" s="35"/>
-      <x:c r="C32" s="7"/>
-      <x:c r="D32" s="7"/>
-      <x:c r="E32" s="7"/>
-      <x:c r="F32" s="8"/>
-      <x:c r="G32" s="28"/>
-      <x:c r="H32" s="4"/>
-    </x:row>
-    <x:row r="33" spans="1:8">
-      <x:c r="A33" s="28">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B33" s="35"/>
-      <x:c r="C33" s="7"/>
-      <x:c r="D33" s="7"/>
-      <x:c r="E33" s="7"/>
-      <x:c r="F33" s="8"/>
-      <x:c r="G33" s="28"/>
-      <x:c r="H33" s="4"/>
-    </x:row>
-    <x:row r="34" spans="1:8">
-      <x:c r="A34" s="28">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B34" s="32"/>
-      <x:c r="C34" s="7"/>
-      <x:c r="D34" s="7"/>
-      <x:c r="E34" s="7"/>
-      <x:c r="F34" s="8"/>
-      <x:c r="G34" s="28"/>
-      <x:c r="H34" s="4"/>
-    </x:row>
-    <x:row r="35" spans="1:8">
-      <x:c r="A35" s="8">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B35" s="32"/>
-      <x:c r="C35" s="7"/>
-      <x:c r="D35" s="7"/>
-      <x:c r="E35" s="7"/>
-      <x:c r="F35" s="8"/>
-      <x:c r="G35" s="28"/>
-      <x:c r="H35" s="4"/>
-    </x:row>
-    <x:row r="36" spans="1:8">
-      <x:c r="A36" s="28">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B36" s="32"/>
-      <x:c r="C36" s="7"/>
-      <x:c r="D36" s="7"/>
-      <x:c r="E36" s="7"/>
-      <x:c r="F36" s="8"/>
-      <x:c r="G36" s="28"/>
-      <x:c r="H36" s="4"/>
-    </x:row>
-    <x:row r="37" spans="1:8">
-      <x:c r="A37" s="28">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B37" s="32"/>
-      <x:c r="C37" s="7"/>
-      <x:c r="D37" s="7"/>
-      <x:c r="E37" s="7"/>
-      <x:c r="F37" s="8"/>
-      <x:c r="G37" s="28"/>
-      <x:c r="H37" s="4"/>
-    </x:row>
-    <x:row r="38" spans="1:8">
-      <x:c r="A38" s="8">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B38" s="32"/>
-      <x:c r="C38" s="8"/>
-      <x:c r="D38" s="8"/>
-      <x:c r="E38" s="8"/>
-      <x:c r="F38" s="8"/>
-      <x:c r="G38" s="28"/>
-      <x:c r="H38" s="4"/>
-    </x:row>
-    <x:row r="39" spans="1:8">
-      <x:c r="A39" s="28">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B39" s="32"/>
-      <x:c r="C39" s="8"/>
-      <x:c r="D39" s="8"/>
-      <x:c r="E39" s="8"/>
-      <x:c r="F39" s="8"/>
-      <x:c r="G39" s="28"/>
-      <x:c r="H39" s="4"/>
-    </x:row>
-    <x:row r="40" spans="1:8">
-      <x:c r="A40" s="28">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B40" s="32"/>
-      <x:c r="C40" s="7"/>
-      <x:c r="D40" s="7"/>
-      <x:c r="E40" s="7"/>
-      <x:c r="F40" s="8"/>
-      <x:c r="G40" s="28"/>
-      <x:c r="H40" s="4"/>
-    </x:row>
-    <x:row r="41" spans="1:8">
-      <x:c r="A41" s="28">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B41" s="32"/>
-      <x:c r="C41" s="7"/>
-      <x:c r="D41" s="7"/>
-      <x:c r="E41" s="7"/>
-      <x:c r="F41" s="8"/>
-      <x:c r="G41" s="28"/>
-      <x:c r="H41" s="4"/>
-    </x:row>
-    <x:row r="42" spans="1:8">
-      <x:c r="A42" s="8">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B42" s="32"/>
-      <x:c r="C42" s="7"/>
-      <x:c r="D42" s="7"/>
-      <x:c r="E42" s="7"/>
-      <x:c r="F42" s="8"/>
-      <x:c r="G42" s="28"/>
-      <x:c r="H42" s="4"/>
-    </x:row>
-    <x:row r="43" spans="1:8">
-      <x:c r="A43" s="28">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B43" s="32"/>
-      <x:c r="C43" s="7"/>
-      <x:c r="D43" s="7"/>
-      <x:c r="E43" s="7"/>
-      <x:c r="F43" s="8"/>
-      <x:c r="G43" s="28"/>
-      <x:c r="H43" s="4"/>
-    </x:row>
-    <x:row r="44" spans="1:8">
-      <x:c r="A44" s="28">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B44" s="32"/>
-      <x:c r="C44" s="7"/>
-      <x:c r="D44" s="7"/>
-      <x:c r="E44" s="7"/>
-      <x:c r="F44" s="8"/>
-      <x:c r="G44" s="28"/>
-      <x:c r="H44" s="4"/>
-    </x:row>
-    <x:row r="45" spans="1:10">
-      <x:c r="A45" s="48"/>
-      <x:c r="B45" s="48"/>
-      <x:c r="C45" s="48"/>
-      <x:c r="D45" s="36"/>
-      <x:c r="E45" s="36"/>
-      <x:c r="F45" s="48"/>
-      <x:c r="G45" s="48"/>
-      <x:c r="H45" s="48"/>
-      <x:c r="I45" s="48"/>
-      <x:c r="J45" s="48"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="48"/>
-      <x:c r="B46" s="48"/>
-      <x:c r="C46" s="48"/>
-      <x:c r="D46" s="36"/>
-      <x:c r="E46" s="36"/>
-      <x:c r="F46" s="48"/>
-      <x:c r="G46" s="48"/>
-      <x:c r="H46" s="48"/>
-      <x:c r="I46" s="48"/>
-      <x:c r="J46" s="48"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="36"/>
-      <x:c r="B47" s="37"/>
-      <x:c r="C47" s="36"/>
-      <x:c r="D47" s="36"/>
-      <x:c r="E47" s="36"/>
-      <x:c r="F47" s="36"/>
-      <x:c r="H47" s="48"/>
-      <x:c r="I47" s="48"/>
-      <x:c r="J47" s="48"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="36"/>
-      <x:c r="B48" s="37"/>
-      <x:c r="C48" s="40"/>
-      <x:c r="D48" s="40"/>
-      <x:c r="E48" s="40"/>
-      <x:c r="F48" s="38"/>
-      <x:c r="H48" s="48"/>
-      <x:c r="I48" s="48"/>
-      <x:c r="J48" s="48"/>
-    </x:row>
-    <x:row r="49" spans="1:10">
-      <x:c r="A49" s="36"/>
-      <x:c r="B49" s="37"/>
-      <x:c r="C49" s="36"/>
-      <x:c r="D49" s="36"/>
-      <x:c r="E49" s="36"/>
-      <x:c r="F49" s="36"/>
-      <x:c r="H49" s="48"/>
-      <x:c r="I49" s="48"/>
-      <x:c r="J49" s="48"/>
-    </x:row>
-    <x:row r="50" spans="1:10">
-      <x:c r="A50" s="36"/>
-      <x:c r="B50" s="37"/>
-      <x:c r="C50" s="36"/>
-      <x:c r="D50" s="36"/>
-      <x:c r="E50" s="36"/>
-      <x:c r="F50" s="39"/>
-      <x:c r="H50" s="48"/>
-      <x:c r="I50" s="48"/>
-      <x:c r="J50" s="48"/>
-    </x:row>
-    <x:row r="51" spans="1:10">
-      <x:c r="A51" s="36"/>
-      <x:c r="B51" s="37"/>
-      <x:c r="C51" s="36"/>
-      <x:c r="D51" s="36"/>
-      <x:c r="E51" s="36"/>
-      <x:c r="F51" s="36"/>
-      <x:c r="H51" s="49"/>
-      <x:c r="I51" s="50"/>
-      <x:c r="J51" s="50"/>
-    </x:row>
-    <x:row r="52" spans="1:10">
-      <x:c r="A52" s="36"/>
-      <x:c r="B52" s="37"/>
-      <x:c r="C52" s="36"/>
-      <x:c r="D52" s="36"/>
-      <x:c r="E52" s="36"/>
-      <x:c r="F52" s="36"/>
-      <x:c r="H52" s="49"/>
-      <x:c r="I52" s="50"/>
-      <x:c r="J52" s="50"/>
-    </x:row>
-    <x:row r="53" spans="1:10">
-      <x:c r="A53" s="36"/>
-      <x:c r="B53" s="37"/>
-      <x:c r="C53" s="36"/>
-      <x:c r="D53" s="36"/>
-      <x:c r="E53" s="36"/>
-      <x:c r="F53" s="36"/>
-      <x:c r="H53" s="49"/>
-      <x:c r="I53" s="50"/>
-      <x:c r="J53" s="50"/>
-    </x:row>
-    <x:row r="54" spans="1:10">
-      <x:c r="A54" s="36"/>
-      <x:c r="B54" s="37"/>
-      <x:c r="C54" s="36"/>
-      <x:c r="D54" s="36"/>
-      <x:c r="E54" s="36"/>
-      <x:c r="F54" s="36"/>
-      <x:c r="H54" s="48"/>
-      <x:c r="I54" s="48"/>
-      <x:c r="J54" s="48"/>
-    </x:row>
-    <x:row r="55" spans="1:10">
-      <x:c r="A55" s="36"/>
-      <x:c r="B55" s="36"/>
-      <x:c r="C55" s="36"/>
-      <x:c r="D55" s="36"/>
-      <x:c r="E55" s="36"/>
-      <x:c r="F55" s="36"/>
-      <x:c r="H55" s="48"/>
-      <x:c r="I55" s="48"/>
-      <x:c r="J55" s="48"/>
-    </x:row>
-    <x:row r="56" spans="1:10">
-      <x:c r="A56" s="36"/>
-      <x:c r="B56" s="36"/>
-      <x:c r="C56" s="36"/>
-      <x:c r="D56" s="36"/>
-      <x:c r="E56" s="36"/>
-      <x:c r="F56" s="36"/>
-      <x:c r="H56" s="48"/>
-      <x:c r="I56" s="48"/>
-      <x:c r="J56" s="48"/>
-    </x:row>
-    <x:row r="57" spans="1:10">
-      <x:c r="A57" s="36"/>
-      <x:c r="B57" s="36"/>
-      <x:c r="C57" s="36"/>
-      <x:c r="D57" s="36"/>
-      <x:c r="E57" s="36"/>
-      <x:c r="F57" s="36"/>
-      <x:c r="H57" s="48"/>
-      <x:c r="I57" s="48"/>
-      <x:c r="J57" s="48"/>
-    </x:row>
-    <x:row r="58" spans="1:10">
-      <x:c r="A58" s="36"/>
-      <x:c r="B58" s="36"/>
-      <x:c r="C58" s="36"/>
-      <x:c r="D58" s="36"/>
-      <x:c r="E58" s="36"/>
-      <x:c r="F58" s="36"/>
-      <x:c r="H58" s="48"/>
-      <x:c r="I58" s="48"/>
-      <x:c r="J58" s="48"/>
-    </x:row>
-    <x:row r="59" spans="1:10">
-      <x:c r="A59" s="36"/>
-      <x:c r="B59" s="36"/>
-      <x:c r="C59" s="36"/>
-      <x:c r="D59" s="36"/>
-      <x:c r="E59" s="36"/>
-      <x:c r="F59" s="36"/>
-      <x:c r="H59" s="48"/>
-      <x:c r="I59" s="48"/>
-      <x:c r="J59" s="48"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="32"/>
+      <x:c r="B15" s="32"/>
+      <x:c r="C15" s="32"/>
+      <x:c r="D15" s="32"/>
+      <x:c r="E15" s="32"/>
+      <x:c r="F15" s="32"/>
+      <x:c r="G15" s="32"/>
+      <x:c r="H15" s="44"/>
+      <x:c r="I15" s="44"/>
+      <x:c r="J15" s="44"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="32"/>
+      <x:c r="B16" s="33"/>
+      <x:c r="C16" s="32"/>
+      <x:c r="D16" s="32"/>
+      <x:c r="E16" s="32"/>
+      <x:c r="F16" s="32"/>
+      <x:c r="H16" s="44"/>
+      <x:c r="I16" s="44"/>
+      <x:c r="J16" s="44"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="32"/>
+      <x:c r="B17" s="33"/>
+      <x:c r="C17" s="36"/>
+      <x:c r="D17" s="36"/>
+      <x:c r="E17" s="36"/>
+      <x:c r="F17" s="34"/>
+      <x:c r="H17" s="44"/>
+      <x:c r="I17" s="44"/>
+      <x:c r="J17" s="44"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="32"/>
+      <x:c r="B18" s="33"/>
+      <x:c r="C18" s="32"/>
+      <x:c r="D18" s="32"/>
+      <x:c r="E18" s="32"/>
+      <x:c r="F18" s="32"/>
+      <x:c r="H18" s="44"/>
+      <x:c r="I18" s="44"/>
+      <x:c r="J18" s="44"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="32"/>
+      <x:c r="B19" s="33"/>
+      <x:c r="C19" s="32"/>
+      <x:c r="D19" s="32"/>
+      <x:c r="E19" s="32"/>
+      <x:c r="F19" s="35"/>
+      <x:c r="H19" s="44"/>
+      <x:c r="I19" s="44"/>
+      <x:c r="J19" s="44"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="32"/>
+      <x:c r="B20" s="33"/>
+      <x:c r="C20" s="32"/>
+      <x:c r="D20" s="32"/>
+      <x:c r="E20" s="32"/>
+      <x:c r="F20" s="32"/>
+      <x:c r="H20" s="45"/>
+      <x:c r="I20" s="46"/>
+      <x:c r="J20" s="46"/>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="32"/>
+      <x:c r="B21" s="33"/>
+      <x:c r="C21" s="32"/>
+      <x:c r="D21" s="32"/>
+      <x:c r="E21" s="32"/>
+      <x:c r="F21" s="32"/>
+      <x:c r="H21" s="45"/>
+      <x:c r="I21" s="46"/>
+      <x:c r="J21" s="46"/>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="32"/>
+      <x:c r="B22" s="33"/>
+      <x:c r="C22" s="32"/>
+      <x:c r="D22" s="32"/>
+      <x:c r="E22" s="32"/>
+      <x:c r="F22" s="32"/>
+      <x:c r="H22" s="45"/>
+      <x:c r="I22" s="46"/>
+      <x:c r="J22" s="46"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="32"/>
+      <x:c r="B23" s="33"/>
+      <x:c r="C23" s="32"/>
+      <x:c r="D23" s="32"/>
+      <x:c r="E23" s="32"/>
+      <x:c r="F23" s="32"/>
+      <x:c r="H23" s="44"/>
+      <x:c r="I23" s="44"/>
+      <x:c r="J23" s="44"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="32"/>
+      <x:c r="B24" s="32"/>
+      <x:c r="C24" s="32"/>
+      <x:c r="D24" s="32"/>
+      <x:c r="E24" s="32"/>
+      <x:c r="F24" s="32"/>
+      <x:c r="H24" s="44"/>
+      <x:c r="I24" s="44"/>
+      <x:c r="J24" s="44"/>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="32"/>
+      <x:c r="B25" s="32"/>
+      <x:c r="C25" s="32"/>
+      <x:c r="D25" s="32"/>
+      <x:c r="E25" s="32"/>
+      <x:c r="F25" s="32"/>
+      <x:c r="H25" s="44"/>
+      <x:c r="I25" s="44"/>
+      <x:c r="J25" s="44"/>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="32"/>
+      <x:c r="B26" s="32"/>
+      <x:c r="C26" s="32"/>
+      <x:c r="D26" s="32"/>
+      <x:c r="E26" s="32"/>
+      <x:c r="F26" s="32"/>
+      <x:c r="H26" s="44"/>
+      <x:c r="I26" s="44"/>
+      <x:c r="J26" s="44"/>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="32"/>
+      <x:c r="B27" s="32"/>
+      <x:c r="C27" s="32"/>
+      <x:c r="D27" s="32"/>
+      <x:c r="E27" s="32"/>
+      <x:c r="F27" s="32"/>
+      <x:c r="H27" s="44"/>
+      <x:c r="I27" s="44"/>
+      <x:c r="J27" s="44"/>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="32"/>
+      <x:c r="B28" s="32"/>
+      <x:c r="C28" s="32"/>
+      <x:c r="D28" s="32"/>
+      <x:c r="E28" s="32"/>
+      <x:c r="F28" s="32"/>
+      <x:c r="H28" s="44"/>
+      <x:c r="I28" s="44"/>
+      <x:c r="J28" s="44"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="27">
+  <x:mergeCells count="22">
     <x:mergeCell ref="H1:H2"/>
     <x:mergeCell ref="G1:G2"/>
     <x:mergeCell ref="A1:A2"/>
     <x:mergeCell ref="B1:B2"/>
     <x:mergeCell ref="C1:C2"/>
     <x:mergeCell ref="F1:F2"/>
-    <x:mergeCell ref="A45:A46"/>
-    <x:mergeCell ref="B45:B46"/>
-    <x:mergeCell ref="C45:C46"/>
-    <x:mergeCell ref="F45:F46"/>
-    <x:mergeCell ref="G45:G46"/>
-    <x:mergeCell ref="H45:J46"/>
-    <x:mergeCell ref="H47:J47"/>
-    <x:mergeCell ref="H48:J48"/>
-    <x:mergeCell ref="H49:J49"/>
-    <x:mergeCell ref="H50:J50"/>
-    <x:mergeCell ref="H51:J51"/>
-    <x:mergeCell ref="H52:J52"/>
-    <x:mergeCell ref="H58:J58"/>
-    <x:mergeCell ref="H59:J59"/>
-    <x:mergeCell ref="H53:J53"/>
-    <x:mergeCell ref="H54:J54"/>
-    <x:mergeCell ref="H55:J55"/>
-    <x:mergeCell ref="H56:J56"/>
-    <x:mergeCell ref="H57:J57"/>
+    <x:mergeCell ref="H16:J16"/>
+    <x:mergeCell ref="H17:J17"/>
+    <x:mergeCell ref="H18:J18"/>
+    <x:mergeCell ref="H19:J19"/>
+    <x:mergeCell ref="H20:J20"/>
+    <x:mergeCell ref="H21:J21"/>
+    <x:mergeCell ref="H27:J27"/>
+    <x:mergeCell ref="H28:J28"/>
+    <x:mergeCell ref="H22:J22"/>
+    <x:mergeCell ref="H23:J23"/>
+    <x:mergeCell ref="H24:J24"/>
+    <x:mergeCell ref="H25:J25"/>
+    <x:mergeCell ref="H26:J26"/>
     <x:mergeCell ref="D1:D2"/>
     <x:mergeCell ref="E1:E2"/>
+    <x:mergeCell ref="H15:J15"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967292" verticalDpi="600" copies="1"/>

--- a/1조_문서자료/1조_기능정의서_남구통합도서관.xlsx
+++ b/1조_문서자료/1조_기능정의서_남구통합도서관.xlsx
@@ -20,62 +20,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
-  <x:si>
-    <x:t>위치 : Header 하단
-1. 회원정보 수정
- - 아이디, 이메일 변경 불가
- - 비밀번호 작성 규칙에 맞는 정규화
-  * 최소 8자리이상, 영어 대/소문자, 숫자, 특수문자 중 3종류 조합
-2. 대출/반납 이력 조회 기능
-3. 자료 대출/예약 기능
-4. 희망 도서 신청 기능
-5. 평생학습 등 신청 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
-1. 회원가입 기본 양식 출력
- - 이메일은 반듯이 작성하도록 설정
-  * 이메일 정규화 추가
- - 이메일 인증이 정상일 경우에만 회원가입완료 버튼 활성화
- - 비밀번호 작성 규칙에 맞는 정규화 추가
-  * 최소 8자리이상, 영어 대/소문자, 숫자, 특수문자 중 3종류 조합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+  <x:si>
+    <x:t>관리자 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Contents
+1. 다양한 타입의 게시판 제공
+ - 관리자용 / 사용자용(댓글)
+2. 게시판 기능 제공
+ - 글 목록 개수 (페이지) 기능
+ - 댓글 사용여부 기능
+ - 글자 수 제한 기능
+ - 파일 업로드 및 용량 제한 기능
+ - 조회수 출력 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-log</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>△</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-board</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  통합도서관 홈페이지 개편</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MyPage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초안작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히스토리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depath1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의 영역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로제트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depath2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BigData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Contents
 1. 베스트 셀러 도서 이미지 및 제목 출력
 2. 추천 도서 이미지 및 제목 출력
-3. 베스트셀러 및 추천도서 순위를 시각화하여 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
-1. 검색 결과 출력
- - 이미지 섬네일, 제목과 함께 간단한 설명 제공
- - 소장도서관 별 자료건수 표시
- - 소장도서의 반납상태, 대출가능 여부 확인 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
-1. 로그인 5회 실패시 로그인 잠금 기능
-2. 일정 시간이 지난 후 자동 로그아웃 기능
-3. 휴면계정 해제 기능
- - 휴면계정일 경우 등록되어있는 이메일을 통하여 인증 후 로그인하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
+3. 지도 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Header 오른쪽 상단
 1. 권한 부여
  - 관리자별 권한 부여 기능
-2. 관리자 권한 출력 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
-1. 검색 버튼 출력
- - 모든 게시판 내용 검색 기능
-2. 상세검색 버튼 출력
- - 작가, 출판사, 카테고리 등 조건을 등록할 수 있는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : DB(어떤방식으로 보여줄지 안정함)
+2. 관리자 권한 출력 기능
+3. 회원 생성, 수정, 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Header 오른쪽 상단
+1. 회원정보 수정
+ - 아이디 변경불가
+4. Mypage 버튼 출력
+ - 정상적으로 Login 되었을 경우에만 출력되도록 설정
+ - Mypage 버튼 누를 시 Mypage 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박철순</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Log</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Contents
 1. 사용자 접속기록
  - ID, 날짜, 시간, 접속IP
 2. 사용자 중요 작업 내용 기록
@@ -84,192 +150,98 @@
  - 게시글 작성,수정,삭제</x:t>
   </x:si>
   <x:si>
-    <x:t>위치 : DB(어떤방식으로 보여줄지 안정함)
-1. 각 관리자별 사용이력 기록
- - 로그인 기록
- - 게시글 작성,수정,삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Header 하단
-1. 다양한 타입의 게시판 제공
- - 일반형 / 갤러리 / 1:1 문의 / 답변형 / FAQ 등
-2. 게시판 기능 제공
- - 글 목록 개수 (페이지) 기능
- - 댓글 사용여부 기능
- - 글자 수 제한 기능
- - 비밀글 기능
- - 파일 업로드 및 용량 제한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : Modal
-1. 이미지 팝업 등록 기능
- - 게시기간 설정 기능 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치 : 페이지 상단
+    <x:t>위치 : Contents
+1. 도서 API 연동
+2. 도서 정보 DB 저장
+3. 도서의 키워드 확인 및 이미지생성
+4. 도서 이미지에 이벤트 추가
+ - 마우스 호버시 해당 도서의 키워드이미지 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  603호실 1조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Contents 하단
+1. 게시판 검색 결과 출력
+ - 제목, 내용에 따른 검색 결과 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Header 오른쪽 상단
+1. 회원가입 버튼 출력
+ - 회원가입 버튼 누를 시 회원가입 페이지로 이동
+2. 회원가입 기본 양식 출력
+ - 이메일은 반듯이 작성하도록 설정
+  * 이메일 정규화 추가
+ - 이메일 인증이 정상일 경우에만 회원가입완료 버튼 활성화
+ - 비밀번호 작성 규칙에 맞는 정규화 추가
+  * 최소 8자리이상, 영어, 숫자, 특수문자 중 3종류 조합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-main-booksearch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Header, Contents
+1. 도서 검색 버튼 출력
+ - 키워드로 검색이 가능하도록 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Front-end</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치 : Header
 1. 메인 로고 이미지 출력
  - 이미지 클릭 시 메인화면으로 이동
 2. Login 버튼 출력
  - Login 버튼 누를 시 Login 페이지로 이동
- - 로그인 시 로그인 시간 및 IP출력
-3. 회원가입 버튼 출력
- - 회원가입 버튼 누를 시 회원가입 페이지로 이동
-4. Mypage 버튼 출력
- - 정상적으로 Login 되었을 경우에만 출력되도록 설정
- - Mypage 버튼 누를 시 Mypage 페이지로 이동
-5. 메뉴 바 출력 ( 1차 메뉴)
+ - 로그인 시 로그인 아이디 및 IP출력
+3. 메뉴 바 출력 ( 1차 메뉴)
  - 도서관 안내
- - 자료 검색
- - 문화 프로그램
- - 온라인 서비스
+ - 도서 검색
  - 열린마당
  - 알림마당
  - 작은도서관</x:t>
   </x:si>
   <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depath1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의 영역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UserLog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depath2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로제트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능 정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자
-연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PopUp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초안작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>히스토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depath3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박철순</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  603호실 1조</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  Front-end</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdminLog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-main-search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-log-userlog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-board</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  통합도서관 홈페이지 개편</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-popup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-signup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-Header</x:t>
+    <x:t>SignUp / Login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BookSearch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-main-BigData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library-board-search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통합도서관 홈페이지 개편 기능 정의서</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">  PM : 박철순 / PL : 최재성</x:t>
   </x:si>
   <x:si>
-    <x:t>통합도서관 홈페이지 개편 기능 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-board-search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-login-Mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Library-log-adminlog</x:t>
+    <x:t>수정사항 적용</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -312,23 +284,70 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="새굴림"/>
-      <x:sz val="9"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="새굴림"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="새굴림"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -372,7 +391,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="17">
+  <x:borders count="16">
     <x:border>
       <x:left>
         <x:color auto="1"/>
@@ -559,20 +578,6 @@
       <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
       <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
@@ -617,10 +622,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="52">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+  <x:cellXfs count="49">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -820,73 +822,31 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" readingOrder="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" readingOrder="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -919,13 +879,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -951,6 +911,19 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -958,19 +931,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -994,6 +954,32 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" readingOrder="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" readingOrder="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" readingOrder="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" readingOrder="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1379,7 +1365,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1734,312 +1719,320 @@
   <x:dimension ref="B2:G33"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E25" activeCellId="0" sqref="E25:E25"/>
+      <x:selection activeCell="E15" activeCellId="0" sqref="E15:E15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.199999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="3" style="8" customWidth="1"/>
-    <x:col min="2" max="2" width="3.375" style="8" customWidth="1"/>
-    <x:col min="3" max="3" width="9.5" style="8" customWidth="1"/>
-    <x:col min="4" max="4" width="10.875" style="8" customWidth="1"/>
-    <x:col min="5" max="5" width="72.875" style="8" customWidth="1"/>
-    <x:col min="6" max="6" width="9" style="8" customWidth="1"/>
-    <x:col min="7" max="7" width="3.625" style="8" customWidth="1"/>
-    <x:col min="8" max="16384" width="9" style="8"/>
+    <x:col min="1" max="1" width="3" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="3.375" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="9.5" style="7" customWidth="1"/>
+    <x:col min="4" max="4" width="10.875" style="7" customWidth="1"/>
+    <x:col min="5" max="5" width="72.875" style="7" customWidth="1"/>
+    <x:col min="6" max="6" width="9" style="7" customWidth="1"/>
+    <x:col min="7" max="7" width="3.625" style="7" customWidth="1"/>
+    <x:col min="8" max="16384" width="9" style="7"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:7" ht="13.550000000000001">
-      <x:c r="B2" s="13"/>
-      <x:c r="C2" s="14"/>
-      <x:c r="D2" s="14"/>
-      <x:c r="E2" s="14"/>
-      <x:c r="F2" s="14"/>
-      <x:c r="G2" s="15"/>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13"/>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="13"/>
+      <x:c r="G2" s="14"/>
     </x:row>
     <x:row r="3" spans="2:7" ht="26.25" customHeight="1">
-      <x:c r="B3" s="16"/>
-      <x:c r="C3" s="49" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D3" s="49"/>
-      <x:c r="E3" s="49"/>
-      <x:c r="F3" s="49"/>
-      <x:c r="G3" s="17"/>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="44" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D3" s="44"/>
+      <x:c r="E3" s="44"/>
+      <x:c r="F3" s="44"/>
+      <x:c r="G3" s="16"/>
     </x:row>
     <x:row r="4" spans="2:7">
-      <x:c r="B4" s="16"/>
-      <x:c r="C4" s="50"/>
-      <x:c r="D4" s="50"/>
-      <x:c r="E4" s="50"/>
-      <x:c r="F4" s="50"/>
-      <x:c r="G4" s="17"/>
+      <x:c r="B4" s="15"/>
+      <x:c r="C4" s="45"/>
+      <x:c r="D4" s="45"/>
+      <x:c r="E4" s="45"/>
+      <x:c r="F4" s="45"/>
+      <x:c r="G4" s="16"/>
     </x:row>
     <x:row r="5" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B5" s="16"/>
-      <x:c r="C5" s="25" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D5" s="51" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E5" s="51"/>
-      <x:c r="F5" s="51"/>
-      <x:c r="G5" s="17"/>
+      <x:c r="B5" s="15"/>
+      <x:c r="C5" s="24" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D5" s="46" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E5" s="46"/>
+      <x:c r="F5" s="46"/>
+      <x:c r="G5" s="16"/>
     </x:row>
     <x:row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B6" s="16"/>
-      <x:c r="C6" s="25" t="s">
+      <x:c r="B6" s="15"/>
+      <x:c r="C6" s="24" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D6" s="22" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E6" s="22"/>
-      <x:c r="F6" s="22"/>
-      <x:c r="G6" s="17"/>
+      <x:c r="D6" s="21" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E6" s="21"/>
+      <x:c r="F6" s="21"/>
+      <x:c r="G6" s="16"/>
     </x:row>
     <x:row r="7" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B7" s="16"/>
-      <x:c r="C7" s="25" t="s">
+      <x:c r="B7" s="15"/>
+      <x:c r="C7" s="24" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D7" s="21" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E7" s="21"/>
+      <x:c r="F7" s="21"/>
+      <x:c r="G7" s="16"/>
+    </x:row>
+    <x:row r="8" spans="2:7" ht="16.5" customHeight="1">
+      <x:c r="B8" s="15"/>
+      <x:c r="C8" s="24" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D8" s="28" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E8" s="21"/>
+      <x:c r="F8" s="21"/>
+      <x:c r="G8" s="16"/>
+    </x:row>
+    <x:row r="9" spans="2:7" ht="8.25" customHeight="1">
+      <x:c r="B9" s="15"/>
+      <x:c r="C9" s="22"/>
+      <x:c r="D9" s="23"/>
+      <x:c r="E9" s="23"/>
+      <x:c r="F9" s="23"/>
+      <x:c r="G9" s="16"/>
+    </x:row>
+    <x:row r="10" spans="2:7" ht="16.5" customHeight="1">
+      <x:c r="B10" s="15"/>
+      <x:c r="C10" s="17"/>
+      <x:c r="D10" s="21"/>
+      <x:c r="E10" s="21"/>
+      <x:c r="F10" s="21"/>
+      <x:c r="G10" s="16"/>
+    </x:row>
+    <x:row r="11" spans="2:7" ht="21.75" customHeight="1">
+      <x:c r="B11" s="15"/>
+      <x:c r="C11" s="17" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D7" s="22" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E7" s="22"/>
-      <x:c r="F7" s="22"/>
-      <x:c r="G7" s="17"/>
-    </x:row>
-    <x:row r="8" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B8" s="16"/>
-      <x:c r="C8" s="25" t="s">
+      <x:c r="D11" s="17"/>
+      <x:c r="E11" s="4"/>
+      <x:c r="F11" s="4"/>
+      <x:c r="G11" s="16"/>
+    </x:row>
+    <x:row r="12" spans="2:7">
+      <x:c r="B12" s="15"/>
+      <x:c r="C12" s="8" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D8" s="29" t="s">
+      <x:c r="E12" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F12" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G12" s="16"/>
+    </x:row>
+    <x:row r="13" spans="2:7">
+      <x:c r="B13" s="15"/>
+      <x:c r="C13" s="10">
+        <x:v>0.10000000000000001</x:v>
+      </x:c>
+      <x:c r="D13" s="11">
+        <x:v>44867</x:v>
+      </x:c>
+      <x:c r="E13" s="9" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F13" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G13" s="16"/>
+    </x:row>
+    <x:row r="14" spans="2:7">
+      <x:c r="B14" s="15"/>
+      <x:c r="C14" s="10">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="D14" s="11">
+        <x:v>44911</x:v>
+      </x:c>
+      <x:c r="E14" s="9" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="E8" s="22"/>
-      <x:c r="F8" s="22"/>
-      <x:c r="G8" s="17"/>
-    </x:row>
-    <x:row r="9" spans="2:7" ht="8.25" customHeight="1">
-      <x:c r="B9" s="16"/>
-      <x:c r="C9" s="23"/>
-      <x:c r="D9" s="24"/>
-      <x:c r="E9" s="24"/>
-      <x:c r="F9" s="24"/>
-      <x:c r="G9" s="17"/>
-    </x:row>
-    <x:row r="10" spans="2:7" ht="16.5" customHeight="1">
-      <x:c r="B10" s="16"/>
-      <x:c r="C10" s="18"/>
-      <x:c r="D10" s="22"/>
-      <x:c r="E10" s="22"/>
-      <x:c r="F10" s="22"/>
-      <x:c r="G10" s="17"/>
-    </x:row>
-    <x:row r="11" spans="2:7" ht="21.75" customHeight="1">
-      <x:c r="B11" s="16"/>
-      <x:c r="C11" s="18" t="s">
+      <x:c r="F14" s="10" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D11" s="18"/>
-      <x:c r="E11" s="5"/>
-      <x:c r="F11" s="5"/>
-      <x:c r="G11" s="17"/>
-    </x:row>
-    <x:row r="12" spans="2:7">
-      <x:c r="B12" s="16"/>
-      <x:c r="C12" s="9" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D12" s="9" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E12" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F12" s="9" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G12" s="17"/>
-    </x:row>
-    <x:row r="13" spans="2:7">
-      <x:c r="B13" s="16"/>
-      <x:c r="C13" s="11">
-        <x:v>0.10000000000000001</x:v>
-      </x:c>
-      <x:c r="D13" s="12">
-        <x:v>44867</x:v>
-      </x:c>
-      <x:c r="E13" s="10" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F13" s="11" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G13" s="17"/>
-    </x:row>
-    <x:row r="14" spans="2:7">
-      <x:c r="B14" s="16"/>
-      <x:c r="C14" s="10"/>
-      <x:c r="D14" s="10"/>
-      <x:c r="E14" s="10"/>
-      <x:c r="F14" s="10"/>
-      <x:c r="G14" s="17"/>
+      <x:c r="G14" s="16"/>
     </x:row>
     <x:row r="15" spans="2:7">
-      <x:c r="B15" s="16"/>
-      <x:c r="C15" s="10"/>
-      <x:c r="D15" s="10"/>
-      <x:c r="E15" s="10"/>
-      <x:c r="F15" s="10"/>
-      <x:c r="G15" s="17"/>
+      <x:c r="B15" s="15"/>
+      <x:c r="C15" s="9"/>
+      <x:c r="D15" s="9"/>
+      <x:c r="E15" s="9"/>
+      <x:c r="F15" s="9"/>
+      <x:c r="G15" s="16"/>
     </x:row>
     <x:row r="16" spans="2:7">
-      <x:c r="B16" s="16"/>
-      <x:c r="C16" s="10"/>
-      <x:c r="D16" s="10"/>
-      <x:c r="E16" s="10"/>
-      <x:c r="F16" s="10"/>
-      <x:c r="G16" s="17"/>
+      <x:c r="B16" s="15"/>
+      <x:c r="C16" s="9"/>
+      <x:c r="D16" s="9"/>
+      <x:c r="E16" s="9"/>
+      <x:c r="F16" s="9"/>
+      <x:c r="G16" s="16"/>
     </x:row>
     <x:row r="17" spans="2:7">
-      <x:c r="B17" s="16"/>
-      <x:c r="C17" s="10"/>
-      <x:c r="D17" s="10"/>
-      <x:c r="E17" s="10"/>
-      <x:c r="F17" s="10"/>
-      <x:c r="G17" s="17"/>
+      <x:c r="B17" s="15"/>
+      <x:c r="C17" s="9"/>
+      <x:c r="D17" s="9"/>
+      <x:c r="E17" s="9"/>
+      <x:c r="F17" s="9"/>
+      <x:c r="G17" s="16"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="16"/>
-      <x:c r="C18" s="10"/>
-      <x:c r="D18" s="10"/>
-      <x:c r="E18" s="10"/>
-      <x:c r="F18" s="10"/>
-      <x:c r="G18" s="17"/>
+      <x:c r="B18" s="15"/>
+      <x:c r="C18" s="9"/>
+      <x:c r="D18" s="9"/>
+      <x:c r="E18" s="9"/>
+      <x:c r="F18" s="9"/>
+      <x:c r="G18" s="16"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="16"/>
-      <x:c r="C19" s="10"/>
-      <x:c r="D19" s="10"/>
-      <x:c r="E19" s="10"/>
-      <x:c r="F19" s="10"/>
-      <x:c r="G19" s="17"/>
+      <x:c r="B19" s="15"/>
+      <x:c r="C19" s="9"/>
+      <x:c r="D19" s="9"/>
+      <x:c r="E19" s="9"/>
+      <x:c r="F19" s="9"/>
+      <x:c r="G19" s="16"/>
     </x:row>
     <x:row r="20" spans="2:7">
-      <x:c r="B20" s="16"/>
-      <x:c r="C20" s="10"/>
-      <x:c r="D20" s="10"/>
-      <x:c r="E20" s="10"/>
-      <x:c r="F20" s="10"/>
-      <x:c r="G20" s="17"/>
+      <x:c r="B20" s="15"/>
+      <x:c r="C20" s="9"/>
+      <x:c r="D20" s="9"/>
+      <x:c r="E20" s="9"/>
+      <x:c r="F20" s="9"/>
+      <x:c r="G20" s="16"/>
     </x:row>
     <x:row r="21" spans="2:7">
-      <x:c r="B21" s="16"/>
-      <x:c r="C21" s="10"/>
-      <x:c r="D21" s="10"/>
-      <x:c r="E21" s="10"/>
-      <x:c r="F21" s="10"/>
-      <x:c r="G21" s="17"/>
+      <x:c r="B21" s="15"/>
+      <x:c r="C21" s="9"/>
+      <x:c r="D21" s="9"/>
+      <x:c r="E21" s="9"/>
+      <x:c r="F21" s="9"/>
+      <x:c r="G21" s="16"/>
     </x:row>
     <x:row r="22" spans="2:7">
-      <x:c r="B22" s="16"/>
-      <x:c r="C22" s="10"/>
-      <x:c r="D22" s="10"/>
-      <x:c r="E22" s="10"/>
-      <x:c r="F22" s="10"/>
-      <x:c r="G22" s="17"/>
+      <x:c r="B22" s="15"/>
+      <x:c r="C22" s="9"/>
+      <x:c r="D22" s="9"/>
+      <x:c r="E22" s="9"/>
+      <x:c r="F22" s="9"/>
+      <x:c r="G22" s="16"/>
     </x:row>
     <x:row r="23" spans="2:7">
-      <x:c r="B23" s="16"/>
-      <x:c r="C23" s="10"/>
-      <x:c r="D23" s="10"/>
-      <x:c r="E23" s="10"/>
-      <x:c r="F23" s="10"/>
-      <x:c r="G23" s="17"/>
+      <x:c r="B23" s="15"/>
+      <x:c r="C23" s="9"/>
+      <x:c r="D23" s="9"/>
+      <x:c r="E23" s="9"/>
+      <x:c r="F23" s="9"/>
+      <x:c r="G23" s="16"/>
     </x:row>
     <x:row r="24" spans="2:7">
-      <x:c r="B24" s="16"/>
-      <x:c r="C24" s="10"/>
-      <x:c r="D24" s="10"/>
-      <x:c r="E24" s="10"/>
-      <x:c r="F24" s="10"/>
-      <x:c r="G24" s="17"/>
+      <x:c r="B24" s="15"/>
+      <x:c r="C24" s="9"/>
+      <x:c r="D24" s="9"/>
+      <x:c r="E24" s="9"/>
+      <x:c r="F24" s="9"/>
+      <x:c r="G24" s="16"/>
     </x:row>
     <x:row r="25" spans="2:7">
-      <x:c r="B25" s="16"/>
-      <x:c r="C25" s="10"/>
-      <x:c r="D25" s="10"/>
-      <x:c r="E25" s="10"/>
-      <x:c r="F25" s="10"/>
-      <x:c r="G25" s="17"/>
+      <x:c r="B25" s="15"/>
+      <x:c r="C25" s="9"/>
+      <x:c r="D25" s="9"/>
+      <x:c r="E25" s="9"/>
+      <x:c r="F25" s="9"/>
+      <x:c r="G25" s="16"/>
     </x:row>
     <x:row r="26" spans="2:7">
-      <x:c r="B26" s="16"/>
-      <x:c r="C26" s="10"/>
-      <x:c r="D26" s="10"/>
-      <x:c r="E26" s="10"/>
-      <x:c r="F26" s="10"/>
-      <x:c r="G26" s="17"/>
+      <x:c r="B26" s="15"/>
+      <x:c r="C26" s="9"/>
+      <x:c r="D26" s="9"/>
+      <x:c r="E26" s="9"/>
+      <x:c r="F26" s="9"/>
+      <x:c r="G26" s="16"/>
     </x:row>
     <x:row r="27" spans="2:7">
-      <x:c r="B27" s="16"/>
-      <x:c r="C27" s="10"/>
-      <x:c r="D27" s="10"/>
-      <x:c r="E27" s="10"/>
-      <x:c r="F27" s="10"/>
-      <x:c r="G27" s="17"/>
+      <x:c r="B27" s="15"/>
+      <x:c r="C27" s="9"/>
+      <x:c r="D27" s="9"/>
+      <x:c r="E27" s="9"/>
+      <x:c r="F27" s="9"/>
+      <x:c r="G27" s="16"/>
     </x:row>
     <x:row r="28" spans="2:7">
-      <x:c r="B28" s="16"/>
-      <x:c r="C28" s="10"/>
-      <x:c r="D28" s="10"/>
-      <x:c r="E28" s="10"/>
-      <x:c r="F28" s="10"/>
-      <x:c r="G28" s="17"/>
+      <x:c r="B28" s="15"/>
+      <x:c r="C28" s="9"/>
+      <x:c r="D28" s="9"/>
+      <x:c r="E28" s="9"/>
+      <x:c r="F28" s="9"/>
+      <x:c r="G28" s="16"/>
     </x:row>
     <x:row r="29" spans="2:7">
-      <x:c r="B29" s="16"/>
-      <x:c r="C29" s="10"/>
-      <x:c r="D29" s="10"/>
-      <x:c r="E29" s="10"/>
-      <x:c r="F29" s="10"/>
-      <x:c r="G29" s="17"/>
+      <x:c r="B29" s="15"/>
+      <x:c r="C29" s="9"/>
+      <x:c r="D29" s="9"/>
+      <x:c r="E29" s="9"/>
+      <x:c r="F29" s="9"/>
+      <x:c r="G29" s="16"/>
     </x:row>
     <x:row r="30" spans="2:7">
-      <x:c r="B30" s="16"/>
-      <x:c r="C30" s="10"/>
-      <x:c r="D30" s="10"/>
-      <x:c r="E30" s="10"/>
-      <x:c r="F30" s="10"/>
-      <x:c r="G30" s="17"/>
+      <x:c r="B30" s="15"/>
+      <x:c r="C30" s="9"/>
+      <x:c r="D30" s="9"/>
+      <x:c r="E30" s="9"/>
+      <x:c r="F30" s="9"/>
+      <x:c r="G30" s="16"/>
     </x:row>
     <x:row r="31" spans="2:7">
-      <x:c r="B31" s="16"/>
-      <x:c r="C31" s="10"/>
-      <x:c r="D31" s="10"/>
-      <x:c r="E31" s="10"/>
-      <x:c r="F31" s="10"/>
-      <x:c r="G31" s="17"/>
+      <x:c r="B31" s="15"/>
+      <x:c r="C31" s="9"/>
+      <x:c r="D31" s="9"/>
+      <x:c r="E31" s="9"/>
+      <x:c r="F31" s="9"/>
+      <x:c r="G31" s="16"/>
     </x:row>
     <x:row r="32" spans="2:7">
-      <x:c r="B32" s="16"/>
-      <x:c r="C32" s="10"/>
-      <x:c r="D32" s="10"/>
-      <x:c r="E32" s="10"/>
-      <x:c r="F32" s="10"/>
-      <x:c r="G32" s="17"/>
+      <x:c r="B32" s="15"/>
+      <x:c r="C32" s="9"/>
+      <x:c r="D32" s="9"/>
+      <x:c r="E32" s="9"/>
+      <x:c r="F32" s="9"/>
+      <x:c r="G32" s="16"/>
     </x:row>
     <x:row r="33" spans="2:7" ht="13.550000000000001">
-      <x:c r="B33" s="19"/>
-      <x:c r="C33" s="20"/>
-      <x:c r="D33" s="20"/>
-      <x:c r="E33" s="20"/>
-      <x:c r="F33" s="20"/>
-      <x:c r="G33" s="21"/>
+      <x:c r="B33" s="18"/>
+      <x:c r="C33" s="19"/>
+      <x:c r="D33" s="19"/>
+      <x:c r="E33" s="19"/>
+      <x:c r="F33" s="19"/>
+      <x:c r="G33" s="20"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -2057,495 +2050,443 @@
   <x:sheetPr codeName="Sheet2">
     <x:pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J28"/>
+  <x:dimension ref="A1:I26"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K4" activeCellId="0" sqref="K4:K4"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H11" activeCellId="0" sqref="H11:H11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="8.875" style="30" customWidth="1"/>
-    <x:col min="3" max="3" width="21.625" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="8.875" style="29" customWidth="1"/>
+    <x:col min="3" max="3" width="21.625" style="2" customWidth="1"/>
     <x:col min="4" max="5" width="15.875" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="13.125" style="3" customWidth="1"/>
-    <x:col min="7" max="7" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="60.25" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="14.5" style="2" customWidth="1"/>
+    <x:col min="7" max="7" width="60.25" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="42" t="s">
+    <x:row r="1" spans="1:7">
+      <x:c r="A1" s="37" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B1" s="37" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B1" s="42" t="s">
+      <x:c r="C1" s="34" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D1" s="42" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E1" s="34" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F1" s="36" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1" s="34" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="38"/>
+      <x:c r="B2" s="38"/>
+      <x:c r="C2" s="35"/>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="35"/>
+      <x:c r="F2" s="35"/>
+      <x:c r="G2" s="35"/>
+    </x:row>
+    <x:row r="3" spans="1:7" ht="177" customHeight="1">
+      <x:c r="A3" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="30">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D3" s="26" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="47" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="25" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G3" s="27" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" customFormat="1" ht="148.5" customHeight="1">
+      <x:c r="A4" s="25"/>
+      <x:c r="B4" s="30">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D4" s="26" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E4" s="26" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F4" s="25" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G4" s="27" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" customFormat="1" ht="95.25" customHeight="1">
+      <x:c r="A5" s="25"/>
+      <x:c r="B5" s="30">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D5" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E5" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F5" s="25" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7" ht="68.25" customHeight="1">
+      <x:c r="A6" s="6">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="30">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E6" s="48" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F6" s="25" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G6" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="75.75" customHeight="1">
+      <x:c r="A7" s="25">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="30">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D7" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F7" s="25" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" customFormat="1" ht="96.75" customHeight="1">
+      <x:c r="A8" s="25"/>
+      <x:c r="B8" s="30">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D8" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F8" s="25" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C1" s="39" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D1" s="47" t="s">
+    </x:row>
+    <x:row r="9" spans="1:7" ht="63" customHeight="1">
+      <x:c r="A9" s="25">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="30">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D9" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E1" s="39" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F1" s="39" t="s">
+      <x:c r="F9" s="25" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G9" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="129" customHeight="1">
+      <x:c r="A10" s="25">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="30">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E10" s="48" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F10" s="25" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G10" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7" ht="106.5" customHeight="1">
+      <x:c r="A11" s="6">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B11" s="30">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D11" s="5" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="G1" s="41" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H1" s="39" t="s">
+      <x:c r="E11" s="48" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F11" s="25" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G11" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7" ht="78.75" customHeight="1">
+      <x:c r="A12" s="25">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="30">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="43"/>
-      <x:c r="B2" s="43"/>
-      <x:c r="C2" s="40"/>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="40"/>
-      <x:c r="F2" s="40"/>
-      <x:c r="G2" s="40"/>
-      <x:c r="H2" s="40"/>
-    </x:row>
-    <x:row r="3" spans="1:8" ht="262.5" customHeight="1">
-      <x:c r="A3" s="26">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="31">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="27" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D3" s="27" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" s="27"/>
-      <x:c r="F3" s="26"/>
-      <x:c r="G3" s="26"/>
-      <x:c r="H3" s="28" t="s">
+      <x:c r="D12" s="5" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9" ht="78" customHeight="1">
-      <x:c r="A4" s="7">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="31">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D4" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E4" s="6"/>
-      <x:c r="F4" s="7"/>
-      <x:c r="G4" s="26"/>
-      <x:c r="H4" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I4" s="2"/>
-    </x:row>
-    <x:row r="5" spans="1:10" ht="138" customHeight="1">
-      <x:c r="A5" s="26">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="31">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F5" s="7"/>
-      <x:c r="G5" s="26"/>
-      <x:c r="H5" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I5" s="37"/>
-      <x:c r="J5" s="38"/>
-    </x:row>
-    <x:row r="6" spans="1:9" ht="102" customHeight="1">
-      <x:c r="A6" s="26">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="31">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D6" s="6" t="s">
+      <x:c r="E12" s="48" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E6" s="6"/>
-      <x:c r="F6" s="7"/>
-      <x:c r="G6" s="26"/>
-      <x:c r="H6" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I6" s="2"/>
-    </x:row>
-    <x:row r="7" spans="1:8" ht="64.5" customHeight="1">
-      <x:c r="A7" s="7">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="31">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D7" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E7" s="6"/>
-      <x:c r="F7" s="7"/>
-      <x:c r="G7" s="26"/>
-      <x:c r="H7" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8" ht="75.75" customHeight="1">
-      <x:c r="A8" s="26">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="31">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C8" s="6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E8" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F8" s="7"/>
-      <x:c r="G8" s="26"/>
-      <x:c r="H8" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8" ht="88.5" customHeight="1">
-      <x:c r="A9" s="26">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="31">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F9" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G9" s="26"/>
-      <x:c r="H9" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8" ht="131.25" customHeight="1">
-      <x:c r="A10" s="26">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B10" s="31">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C10" s="6" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E10" s="6"/>
-      <x:c r="F10" s="7"/>
-      <x:c r="G10" s="26"/>
-      <x:c r="H10" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8" ht="106.5" customHeight="1">
-      <x:c r="A11" s="7">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="31">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D11" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E11" s="6"/>
-      <x:c r="F11" s="7"/>
-      <x:c r="G11" s="26" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H11" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8" ht="70.5" customHeight="1">
-      <x:c r="A12" s="26">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B12" s="31">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C12" s="6" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D12" s="6" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E12" s="6"/>
-      <x:c r="F12" s="7"/>
-      <x:c r="G12" s="26" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H12" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8" ht="63" customHeight="1">
-      <x:c r="A13" s="26"/>
-      <x:c r="B13" s="31">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C13" s="6" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D13" s="6" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E13" s="6"/>
-      <x:c r="F13" s="7"/>
-      <x:c r="G13" s="26" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H13" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8" ht="54" customHeight="1">
-      <x:c r="A14" s="26"/>
-      <x:c r="B14" s="31">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C14" s="6" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D14" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E14" s="6"/>
-      <x:c r="F14" s="7"/>
-      <x:c r="G14" s="26" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H14" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="32"/>
+      <x:c r="F12" s="25" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G12" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:9">
+      <x:c r="A13" s="31"/>
+      <x:c r="B13" s="31"/>
+      <x:c r="C13" s="31"/>
+      <x:c r="D13" s="31"/>
+      <x:c r="E13" s="31"/>
+      <x:c r="F13" s="31"/>
+      <x:c r="G13" s="39"/>
+      <x:c r="H13" s="39"/>
+      <x:c r="I13" s="39"/>
+    </x:row>
+    <x:row r="14" spans="1:9">
+      <x:c r="A14" s="31"/>
+      <x:c r="B14" s="32"/>
+      <x:c r="C14" s="31"/>
+      <x:c r="D14" s="31"/>
+      <x:c r="E14" s="31"/>
+      <x:c r="G14" s="39"/>
+      <x:c r="H14" s="39"/>
+      <x:c r="I14" s="39"/>
+    </x:row>
+    <x:row r="15" spans="1:9">
+      <x:c r="A15" s="31"/>
       <x:c r="B15" s="32"/>
-      <x:c r="C15" s="32"/>
-      <x:c r="D15" s="32"/>
-      <x:c r="E15" s="32"/>
-      <x:c r="F15" s="32"/>
-      <x:c r="G15" s="32"/>
-      <x:c r="H15" s="44"/>
-      <x:c r="I15" s="44"/>
-      <x:c r="J15" s="44"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="32"/>
-      <x:c r="B16" s="33"/>
-      <x:c r="C16" s="32"/>
-      <x:c r="D16" s="32"/>
-      <x:c r="E16" s="32"/>
-      <x:c r="F16" s="32"/>
-      <x:c r="H16" s="44"/>
-      <x:c r="I16" s="44"/>
-      <x:c r="J16" s="44"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="32"/>
-      <x:c r="B17" s="33"/>
-      <x:c r="C17" s="36"/>
-      <x:c r="D17" s="36"/>
-      <x:c r="E17" s="36"/>
-      <x:c r="F17" s="34"/>
-      <x:c r="H17" s="44"/>
-      <x:c r="I17" s="44"/>
-      <x:c r="J17" s="44"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="32"/>
-      <x:c r="B18" s="33"/>
-      <x:c r="C18" s="32"/>
-      <x:c r="D18" s="32"/>
-      <x:c r="E18" s="32"/>
-      <x:c r="F18" s="32"/>
-      <x:c r="H18" s="44"/>
-      <x:c r="I18" s="44"/>
-      <x:c r="J18" s="44"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="32"/>
-      <x:c r="B19" s="33"/>
-      <x:c r="C19" s="32"/>
-      <x:c r="D19" s="32"/>
-      <x:c r="E19" s="32"/>
-      <x:c r="F19" s="35"/>
-      <x:c r="H19" s="44"/>
-      <x:c r="I19" s="44"/>
-      <x:c r="J19" s="44"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="32"/>
-      <x:c r="B20" s="33"/>
-      <x:c r="C20" s="32"/>
-      <x:c r="D20" s="32"/>
-      <x:c r="E20" s="32"/>
-      <x:c r="F20" s="32"/>
-      <x:c r="H20" s="45"/>
-      <x:c r="I20" s="46"/>
-      <x:c r="J20" s="46"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="32"/>
-      <x:c r="B21" s="33"/>
-      <x:c r="C21" s="32"/>
-      <x:c r="D21" s="32"/>
-      <x:c r="E21" s="32"/>
-      <x:c r="F21" s="32"/>
-      <x:c r="H21" s="45"/>
-      <x:c r="I21" s="46"/>
-      <x:c r="J21" s="46"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="32"/>
-      <x:c r="B22" s="33"/>
-      <x:c r="C22" s="32"/>
-      <x:c r="D22" s="32"/>
-      <x:c r="E22" s="32"/>
-      <x:c r="F22" s="32"/>
-      <x:c r="H22" s="45"/>
-      <x:c r="I22" s="46"/>
-      <x:c r="J22" s="46"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="32"/>
-      <x:c r="B23" s="33"/>
-      <x:c r="C23" s="32"/>
-      <x:c r="D23" s="32"/>
-      <x:c r="E23" s="32"/>
-      <x:c r="F23" s="32"/>
-      <x:c r="H23" s="44"/>
-      <x:c r="I23" s="44"/>
-      <x:c r="J23" s="44"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="32"/>
-      <x:c r="B24" s="32"/>
-      <x:c r="C24" s="32"/>
-      <x:c r="D24" s="32"/>
-      <x:c r="E24" s="32"/>
-      <x:c r="F24" s="32"/>
-      <x:c r="H24" s="44"/>
-      <x:c r="I24" s="44"/>
-      <x:c r="J24" s="44"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="32"/>
-      <x:c r="B25" s="32"/>
-      <x:c r="C25" s="32"/>
-      <x:c r="D25" s="32"/>
-      <x:c r="E25" s="32"/>
-      <x:c r="F25" s="32"/>
-      <x:c r="H25" s="44"/>
-      <x:c r="I25" s="44"/>
-      <x:c r="J25" s="44"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="32"/>
-      <x:c r="B26" s="32"/>
-      <x:c r="C26" s="32"/>
-      <x:c r="D26" s="32"/>
-      <x:c r="E26" s="32"/>
-      <x:c r="F26" s="32"/>
-      <x:c r="H26" s="44"/>
-      <x:c r="I26" s="44"/>
-      <x:c r="J26" s="44"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="32"/>
-      <x:c r="B27" s="32"/>
-      <x:c r="C27" s="32"/>
-      <x:c r="D27" s="32"/>
-      <x:c r="E27" s="32"/>
-      <x:c r="F27" s="32"/>
-      <x:c r="H27" s="44"/>
-      <x:c r="I27" s="44"/>
-      <x:c r="J27" s="44"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="32"/>
-      <x:c r="B28" s="32"/>
-      <x:c r="C28" s="32"/>
-      <x:c r="D28" s="32"/>
-      <x:c r="E28" s="32"/>
-      <x:c r="F28" s="32"/>
-      <x:c r="H28" s="44"/>
-      <x:c r="I28" s="44"/>
-      <x:c r="J28" s="44"/>
+      <x:c r="C15" s="33"/>
+      <x:c r="D15" s="33"/>
+      <x:c r="E15" s="33"/>
+      <x:c r="G15" s="39"/>
+      <x:c r="H15" s="39"/>
+      <x:c r="I15" s="39"/>
+    </x:row>
+    <x:row r="16" spans="1:9">
+      <x:c r="A16" s="31"/>
+      <x:c r="B16" s="32"/>
+      <x:c r="C16" s="31"/>
+      <x:c r="D16" s="31"/>
+      <x:c r="E16" s="31"/>
+      <x:c r="G16" s="39"/>
+      <x:c r="H16" s="39"/>
+      <x:c r="I16" s="39"/>
+    </x:row>
+    <x:row r="17" spans="1:9">
+      <x:c r="A17" s="31"/>
+      <x:c r="B17" s="32"/>
+      <x:c r="C17" s="31"/>
+      <x:c r="D17" s="31"/>
+      <x:c r="E17" s="31"/>
+      <x:c r="G17" s="39"/>
+      <x:c r="H17" s="39"/>
+      <x:c r="I17" s="39"/>
+    </x:row>
+    <x:row r="18" spans="1:9">
+      <x:c r="A18" s="31"/>
+      <x:c r="B18" s="32"/>
+      <x:c r="C18" s="31"/>
+      <x:c r="D18" s="31"/>
+      <x:c r="E18" s="31"/>
+      <x:c r="G18" s="40"/>
+      <x:c r="H18" s="41"/>
+      <x:c r="I18" s="41"/>
+    </x:row>
+    <x:row r="19" spans="1:9">
+      <x:c r="A19" s="31"/>
+      <x:c r="B19" s="32"/>
+      <x:c r="C19" s="31"/>
+      <x:c r="D19" s="31"/>
+      <x:c r="E19" s="31"/>
+      <x:c r="G19" s="40"/>
+      <x:c r="H19" s="41"/>
+      <x:c r="I19" s="41"/>
+    </x:row>
+    <x:row r="20" spans="1:9">
+      <x:c r="A20" s="31"/>
+      <x:c r="B20" s="32"/>
+      <x:c r="C20" s="31"/>
+      <x:c r="D20" s="31"/>
+      <x:c r="E20" s="31"/>
+      <x:c r="G20" s="40"/>
+      <x:c r="H20" s="41"/>
+      <x:c r="I20" s="41"/>
+    </x:row>
+    <x:row r="21" spans="1:9">
+      <x:c r="A21" s="31"/>
+      <x:c r="B21" s="32"/>
+      <x:c r="C21" s="31"/>
+      <x:c r="D21" s="31"/>
+      <x:c r="E21" s="31"/>
+      <x:c r="G21" s="39"/>
+      <x:c r="H21" s="39"/>
+      <x:c r="I21" s="39"/>
+    </x:row>
+    <x:row r="22" spans="1:9">
+      <x:c r="A22" s="31"/>
+      <x:c r="B22" s="31"/>
+      <x:c r="C22" s="31"/>
+      <x:c r="D22" s="31"/>
+      <x:c r="E22" s="31"/>
+      <x:c r="G22" s="39"/>
+      <x:c r="H22" s="39"/>
+      <x:c r="I22" s="39"/>
+    </x:row>
+    <x:row r="23" spans="1:9">
+      <x:c r="A23" s="31"/>
+      <x:c r="B23" s="31"/>
+      <x:c r="C23" s="31"/>
+      <x:c r="D23" s="31"/>
+      <x:c r="E23" s="31"/>
+      <x:c r="G23" s="39"/>
+      <x:c r="H23" s="39"/>
+      <x:c r="I23" s="39"/>
+    </x:row>
+    <x:row r="24" spans="1:9">
+      <x:c r="A24" s="31"/>
+      <x:c r="B24" s="31"/>
+      <x:c r="C24" s="31"/>
+      <x:c r="D24" s="31"/>
+      <x:c r="E24" s="31"/>
+      <x:c r="G24" s="39"/>
+      <x:c r="H24" s="39"/>
+      <x:c r="I24" s="39"/>
+    </x:row>
+    <x:row r="25" spans="1:9">
+      <x:c r="A25" s="31"/>
+      <x:c r="B25" s="31"/>
+      <x:c r="C25" s="31"/>
+      <x:c r="D25" s="31"/>
+      <x:c r="E25" s="31"/>
+      <x:c r="G25" s="39"/>
+      <x:c r="H25" s="39"/>
+      <x:c r="I25" s="39"/>
+    </x:row>
+    <x:row r="26" spans="1:9">
+      <x:c r="A26" s="31"/>
+      <x:c r="B26" s="31"/>
+      <x:c r="C26" s="31"/>
+      <x:c r="D26" s="31"/>
+      <x:c r="E26" s="31"/>
+      <x:c r="G26" s="39"/>
+      <x:c r="H26" s="39"/>
+      <x:c r="I26" s="39"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="22">
-    <x:mergeCell ref="H1:H2"/>
+  <x:mergeCells count="21">
     <x:mergeCell ref="G1:G2"/>
+    <x:mergeCell ref="F1:F2"/>
     <x:mergeCell ref="A1:A2"/>
     <x:mergeCell ref="B1:B2"/>
     <x:mergeCell ref="C1:C2"/>
-    <x:mergeCell ref="F1:F2"/>
-    <x:mergeCell ref="H16:J16"/>
-    <x:mergeCell ref="H17:J17"/>
-    <x:mergeCell ref="H18:J18"/>
-    <x:mergeCell ref="H19:J19"/>
-    <x:mergeCell ref="H20:J20"/>
-    <x:mergeCell ref="H21:J21"/>
-    <x:mergeCell ref="H27:J27"/>
-    <x:mergeCell ref="H28:J28"/>
-    <x:mergeCell ref="H22:J22"/>
-    <x:mergeCell ref="H23:J23"/>
-    <x:mergeCell ref="H24:J24"/>
-    <x:mergeCell ref="H25:J25"/>
-    <x:mergeCell ref="H26:J26"/>
+    <x:mergeCell ref="G14:I14"/>
+    <x:mergeCell ref="G15:I15"/>
+    <x:mergeCell ref="G16:I16"/>
+    <x:mergeCell ref="G17:I17"/>
+    <x:mergeCell ref="G18:I18"/>
+    <x:mergeCell ref="G19:I19"/>
+    <x:mergeCell ref="G25:I25"/>
+    <x:mergeCell ref="G26:I26"/>
+    <x:mergeCell ref="G20:I20"/>
+    <x:mergeCell ref="G21:I21"/>
+    <x:mergeCell ref="G22:I22"/>
+    <x:mergeCell ref="G23:I23"/>
+    <x:mergeCell ref="G24:I24"/>
     <x:mergeCell ref="D1:D2"/>
     <x:mergeCell ref="E1:E2"/>
-    <x:mergeCell ref="H15:J15"/>
+    <x:mergeCell ref="G13:I13"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967292" verticalDpi="600" copies="1"/>
